--- a/teaching/traditional_assets/database/data/russia/russia_business_consumer_services.xlsx
+++ b/teaching/traditional_assets/database/data/russia/russia_business_consumer_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="nasdaq_gs_hhr" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +593,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0827</v>
+        <v>0.171</v>
       </c>
       <c r="E2">
-        <v>-0.0178</v>
+        <v>0.0073</v>
+      </c>
+      <c r="F2">
+        <v>0.282</v>
       </c>
       <c r="G2">
-        <v>-0.0264921576195656</v>
+        <v>0.4701322273394231</v>
       </c>
       <c r="H2">
-        <v>-0.0264921576195656</v>
+        <v>0.4701322273394231</v>
       </c>
       <c r="I2">
-        <v>-0.164918067300607</v>
+        <v>0.309941222869647</v>
       </c>
       <c r="J2">
-        <v>-0.1479805360643285</v>
+        <v>0.2598971417807288</v>
       </c>
       <c r="K2">
-        <v>-2.887</v>
+        <v>21.039</v>
       </c>
       <c r="L2">
-        <v>-0.1013018000631601</v>
+        <v>0.1784432966082288</v>
       </c>
       <c r="M2">
-        <v>0.341</v>
+        <v>24.3</v>
       </c>
       <c r="N2">
-        <v>0.01918964546989308</v>
+        <v>0.01574905214038044</v>
       </c>
       <c r="O2">
-        <v>-0.1181156910287496</v>
+        <v>1.154997861115072</v>
       </c>
       <c r="P2">
-        <v>0.341</v>
+        <v>24.3</v>
       </c>
       <c r="Q2">
-        <v>0.01918964546989308</v>
+        <v>0.01574905214038044</v>
       </c>
       <c r="R2">
-        <v>-0.1181156910287496</v>
+        <v>1.154997861115072</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +644,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.208</v>
+        <v>17.335</v>
       </c>
       <c r="V2">
-        <v>0.01170512099043332</v>
+        <v>0.01123497196927963</v>
       </c>
       <c r="W2">
-        <v>-0.4138074570921286</v>
+        <v>0.02271794871794872</v>
       </c>
       <c r="X2">
-        <v>0.09439841091420084</v>
+        <v>0.07384139026320793</v>
       </c>
       <c r="Y2">
-        <v>-0.5082058680063294</v>
+        <v>-0.05112344154525922</v>
       </c>
       <c r="Z2">
-        <v>0.6173425179793778</v>
+        <v>2.813242662848961</v>
       </c>
       <c r="AA2">
-        <v>-0.3494546109110276</v>
+        <v>-0.02629243063799851</v>
       </c>
       <c r="AB2">
-        <v>0.09374247435806045</v>
+        <v>0.0722084983564128</v>
       </c>
       <c r="AC2">
-        <v>-0.443197085269088</v>
+        <v>-0.09815433129115708</v>
       </c>
       <c r="AD2">
-        <v>1.02</v>
+        <v>60.812</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.02</v>
+        <v>60.812</v>
       </c>
       <c r="AG2">
-        <v>0.8120000000000001</v>
+        <v>43.477</v>
       </c>
       <c r="AH2">
-        <v>0.05428419372006386</v>
+        <v>0.03791834449251199</v>
       </c>
       <c r="AI2">
-        <v>0.02333135093096665</v>
+        <v>0.4242145208996038</v>
       </c>
       <c r="AJ2">
-        <v>0.04369820256161877</v>
+        <v>0.02740561021717356</v>
       </c>
       <c r="AK2">
-        <v>0.01866237646518042</v>
+        <v>0.3450090067213154</v>
       </c>
       <c r="AL2">
-        <v>0.019</v>
+        <v>5.781000000000001</v>
       </c>
       <c r="AM2">
-        <v>-2.409</v>
+        <v>2.545</v>
       </c>
       <c r="AN2">
-        <v>-0.2212581344902387</v>
+        <v>1.381149216443334</v>
       </c>
       <c r="AO2">
-        <v>-247.3684210526316</v>
+        <v>6.321224701608718</v>
       </c>
       <c r="AP2">
-        <v>-0.1761388286334057</v>
+        <v>0.9874403815580288</v>
       </c>
       <c r="AQ2">
-        <v>1.95101701951017</v>
+        <v>14.35874263261296</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +721,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Public Joint Stock Company RN-Western Siberia (MISX:CHGZ)</t>
+          <t>HeadHunter Group PLC (NasdaqGS:HHR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,116 +729,119 @@
           <t>Business &amp; Consumer Services</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0827</v>
-      </c>
-      <c r="E3">
-        <v>-0.0178</v>
+      <c r="F3">
+        <v>0.282</v>
       </c>
       <c r="G3">
-        <v>-1.439299123904881</v>
+        <v>0.5575221238938053</v>
       </c>
       <c r="H3">
-        <v>-1.439299123904881</v>
+        <v>0.5575221238938053</v>
       </c>
       <c r="I3">
-        <v>-1.602002503128911</v>
+        <v>0.3746312684365782</v>
       </c>
       <c r="J3">
-        <v>-1.272942529513243</v>
+        <v>0.2700970596631459</v>
       </c>
       <c r="K3">
-        <v>0.883</v>
+        <v>20.5</v>
       </c>
       <c r="L3">
-        <v>1.105131414267835</v>
+        <v>0.2015732546705998</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>24.3</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.01596478549372577</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.185365853658537</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>24.3</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01596478549372577</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>1.185365853658537</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0.011</v>
+        <v>17</v>
       </c>
       <c r="V3">
-        <v>0.0007236842105263158</v>
+        <v>0.01116877997503449</v>
       </c>
       <c r="W3">
-        <v>0.02148418491484185</v>
+        <v>0.4638009049773755</v>
       </c>
       <c r="X3">
-        <v>0.08409587510056957</v>
+        <v>0.07384139026320793</v>
       </c>
       <c r="Y3">
-        <v>-0.06261169018572772</v>
+        <v>0.3899595147141676</v>
       </c>
       <c r="Z3">
-        <v>0.01944464724635565</v>
+        <v>101.6999999999986</v>
       </c>
       <c r="AA3">
-        <v>-0.02475191845126867</v>
+        <v>27.46887096774154</v>
       </c>
       <c r="AB3">
-        <v>0.08409587510056957</v>
+        <v>0.0722084983564128</v>
       </c>
       <c r="AC3">
-        <v>-0.1088477935518382</v>
+        <v>27.39666246938513</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>60.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>60.2</v>
       </c>
       <c r="AG3">
-        <v>-0.011</v>
+        <v>43.2</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.03804588257599697</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.6206185567010309</v>
       </c>
       <c r="AJ3">
-        <v>-0.0007242083086444137</v>
+        <v>0.02759854341020891</v>
       </c>
       <c r="AK3">
-        <v>-0.0002595012857109156</v>
+        <v>0.54</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="AM3">
-        <v>-2.38</v>
+        <v>4.996</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>1.328918322295806</v>
+      </c>
+      <c r="AO3">
+        <v>6.591695501730104</v>
       </c>
       <c r="AP3">
-        <v>0.008799999999999999</v>
+        <v>0.9536423841059604</v>
       </c>
       <c r="AQ3">
-        <v>0.5378151260504203</v>
+        <v>7.626100880704564</v>
       </c>
     </row>
     <row r="4">
@@ -844,124 +852,8964 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Public Joint Stock Company RN-Western Siberia (MISX:CHGZ)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Business &amp; Consumer Services</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.137</v>
+      </c>
+      <c r="E4">
+        <v>0.0073</v>
+      </c>
+      <c r="G4">
+        <v>-1.406423034330011</v>
+      </c>
+      <c r="H4">
+        <v>-1.406423034330011</v>
+      </c>
+      <c r="I4">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="J4">
+        <v>-1.135204081632653</v>
+      </c>
+      <c r="K4">
+        <v>0.886</v>
+      </c>
+      <c r="L4">
+        <v>0.9811738648947951</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>-0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.008</v>
+      </c>
+      <c r="V4">
+        <v>0.0004324324324324324</v>
+      </c>
+      <c r="W4">
+        <v>0.02271794871794872</v>
+      </c>
+      <c r="X4">
+        <v>0.07186190065315858</v>
+      </c>
+      <c r="Y4">
+        <v>-0.04914395193520986</v>
+      </c>
+      <c r="Z4">
+        <v>0.02316097260695599</v>
+      </c>
+      <c r="AA4">
+        <v>-0.02629243063799851</v>
+      </c>
+      <c r="AB4">
+        <v>0.07186190065315858</v>
+      </c>
+      <c r="AC4">
+        <v>-0.09815433129115708</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-0.008</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.0004326195111399524</v>
+      </c>
+      <c r="AK4">
+        <v>-0.000179807605861728</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>-2.41</v>
+      </c>
+      <c r="AN4">
+        <v>-0</v>
+      </c>
+      <c r="AP4">
+        <v>0.006299212598425197</v>
+      </c>
+      <c r="AQ4">
+        <v>0.5352697095435685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Public Joint Stock Company Multisistema (MISX:MSST)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Business &amp; Consumer Services</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.205</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-0.01745098039215686</v>
+      </c>
+      <c r="J5">
+        <v>-0.01745098039215686</v>
+      </c>
+      <c r="K5">
+        <v>-0.347</v>
+      </c>
+      <c r="L5">
+        <v>-0.0226797385620915</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.327</v>
+      </c>
+      <c r="V5">
+        <v>0.1391489361702128</v>
+      </c>
+      <c r="W5">
+        <v>-0.2393103448275862</v>
+      </c>
+      <c r="X5">
+        <v>0.08489607365732302</v>
+      </c>
+      <c r="Y5">
+        <v>-0.3242064184849092</v>
+      </c>
+      <c r="Z5">
+        <v>7.960457856399585</v>
+      </c>
+      <c r="AA5">
+        <v>-0.1389177939646202</v>
+      </c>
+      <c r="AB5">
+        <v>0.07483511989122497</v>
+      </c>
+      <c r="AC5">
+        <v>-0.2137529138558452</v>
+      </c>
+      <c r="AD5">
+        <v>0.612</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0.612</v>
+      </c>
+      <c r="AG5">
+        <v>0.285</v>
+      </c>
+      <c r="AH5">
+        <v>0.2066171505739365</v>
+      </c>
+      <c r="AI5">
+        <v>0.3304535637149028</v>
+      </c>
+      <c r="AJ5">
+        <v>0.1081593927893738</v>
+      </c>
+      <c r="AK5">
+        <v>0.1868852459016394</v>
+      </c>
+      <c r="AL5">
+        <v>0.001</v>
+      </c>
+      <c r="AM5">
+        <v>-0.041</v>
+      </c>
+      <c r="AO5">
+        <v>-267</v>
+      </c>
+      <c r="AQ5">
+        <v>6.51219512195122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HeadHunter Group PLC (NasdaqGS:HHR)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NasdaqGS:HHR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Business &amp; Consumer Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.038045882575997</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>1522.1</v>
+      </c>
+      <c r="H2">
+        <v>1455.33291800196</v>
+      </c>
+      <c r="I2">
+        <v>1565.3</v>
+      </c>
+      <c r="J2">
+        <v>1596.56291800196</v>
+      </c>
+      <c r="K2">
+        <v>60.2</v>
+      </c>
+      <c r="L2">
+        <v>158.23</v>
+      </c>
+      <c r="M2">
+        <v>0.0722084983564128</v>
+      </c>
+      <c r="N2">
+        <v>0.0709766626400954</v>
+      </c>
+      <c r="O2">
+        <v>0.0309223725867635</v>
+      </c>
+      <c r="P2">
+        <v>0.01296</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.07384139026320791</v>
+      </c>
+      <c r="T2">
+        <v>0.0774229584889949</v>
+      </c>
+      <c r="U2">
+        <v>0.941949381401176</v>
+      </c>
+      <c r="V2">
+        <v>0.994220582268835</v>
+      </c>
+      <c r="W2">
+        <v>13.98963690143197</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1522.1</v>
+      </c>
+      <c r="AB2">
+        <v>0.06851895817076799</v>
+      </c>
+      <c r="AC2">
+        <v>0.03865296573345438</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>45.3</v>
+      </c>
+      <c r="AH2">
+        <v>9.44</v>
+      </c>
+      <c r="AI2">
+        <v>3.560000000000007</v>
+      </c>
+      <c r="AJ2">
+        <v>60.2</v>
+      </c>
+      <c r="AK2">
+        <v>60.2</v>
+      </c>
+      <c r="AL2">
+        <v>5.78</v>
+      </c>
+      <c r="AM2">
+        <v>60.2</v>
+      </c>
+      <c r="AN2">
+        <v>17</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07186190065315858</v>
+      </c>
+      <c r="C2">
+        <v>1590.971881436461</v>
+      </c>
+      <c r="D2">
+        <v>1573.971881436461</v>
+      </c>
+      <c r="E2">
+        <v>-60.2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>1522.1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>45.3</v>
+      </c>
+      <c r="K2">
+        <v>9.44</v>
+      </c>
+      <c r="L2">
+        <v>35.86</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>35.86</v>
+      </c>
+      <c r="O2">
+        <v>7.172000000000001</v>
+      </c>
+      <c r="P2">
+        <v>28.688</v>
+      </c>
+      <c r="Q2">
+        <v>38.128</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07186190065315858</v>
+      </c>
+      <c r="T2">
+        <v>0.9130597184101544</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07177337685185226</v>
+      </c>
+      <c r="C3">
+        <v>1577.379175060966</v>
+      </c>
+      <c r="D3">
+        <v>1576.202175060966</v>
+      </c>
+      <c r="E3">
+        <v>-44.377</v>
+      </c>
+      <c r="F3">
+        <v>15.823</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>1522.1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>45.3</v>
+      </c>
+      <c r="K3">
+        <v>9.44</v>
+      </c>
+      <c r="L3">
+        <v>35.86</v>
+      </c>
+      <c r="M3">
+        <v>0.2563326</v>
+      </c>
+      <c r="N3">
+        <v>35.6036674</v>
+      </c>
+      <c r="O3">
+        <v>7.12073348</v>
+      </c>
+      <c r="P3">
+        <v>28.48293392</v>
+      </c>
+      <c r="Q3">
+        <v>37.92293392</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07236745136550733</v>
+      </c>
+      <c r="T3">
+        <v>0.9204379787609436</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.01296</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>139.8963690143197</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07168485305054594</v>
+      </c>
+      <c r="C4">
+        <v>1563.792798236958</v>
+      </c>
+      <c r="D4">
+        <v>1578.438798236958</v>
+      </c>
+      <c r="E4">
+        <v>-28.554</v>
+      </c>
+      <c r="F4">
+        <v>31.646</v>
+      </c>
       <c r="G4">
-        <v>0.01425992779783394</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>0.01425992779783394</v>
+        <v>1522.1</v>
       </c>
       <c r="I4">
-        <v>-0.1234657039711191</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.1234657039711191</v>
+        <v>45.3</v>
       </c>
       <c r="K4">
-        <v>-3.77</v>
+        <v>9.44</v>
       </c>
       <c r="L4">
-        <v>-0.136101083032491</v>
+        <v>35.86</v>
       </c>
       <c r="M4">
-        <v>0.341</v>
+        <v>0.5126651999999999</v>
       </c>
       <c r="N4">
-        <v>0.1326848249027238</v>
+        <v>35.3473348</v>
       </c>
       <c r="O4">
-        <v>-0.09045092838196288</v>
+        <v>7.06946696</v>
       </c>
       <c r="P4">
-        <v>0.341</v>
+        <v>28.27786784</v>
       </c>
       <c r="Q4">
-        <v>0.1326848249027238</v>
+        <v>37.71786784</v>
       </c>
       <c r="R4">
-        <v>-0.09045092838196288</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.07288331943933259</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.9279668158535855</v>
       </c>
       <c r="U4">
-        <v>0.197</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
-        <v>0.07665369649805448</v>
+        <v>0.2</v>
       </c>
       <c r="W4">
-        <v>-0.849099099099099</v>
-      </c>
-      <c r="X4">
-        <v>0.1047009467278321</v>
+        <v>0.01296</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y4">
-        <v>-0.9538000458269311</v>
+        <v>69.94818450715985</v>
       </c>
       <c r="Z4">
-        <v>5.460279913266311</v>
-      </c>
-      <c r="AA4">
-        <v>-0.6741573033707865</v>
-      </c>
-      <c r="AB4">
-        <v>0.1033890736155513</v>
-      </c>
-      <c r="AC4">
-        <v>-0.7775463769863378</v>
-      </c>
-      <c r="AD4">
-        <v>1.02</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>1.02</v>
-      </c>
-      <c r="AG4">
-        <v>0.823</v>
-      </c>
-      <c r="AH4">
-        <v>0.2841225626740947</v>
-      </c>
-      <c r="AI4">
-        <v>0.7738998482549317</v>
-      </c>
-      <c r="AJ4">
-        <v>0.2425582080754494</v>
-      </c>
-      <c r="AK4">
-        <v>0.7341659232827832</v>
-      </c>
-      <c r="AL4">
-        <v>0.019</v>
-      </c>
-      <c r="AM4">
-        <v>-0.029</v>
-      </c>
-      <c r="AN4">
-        <v>-0.3035714285714286</v>
-      </c>
-      <c r="AO4">
-        <v>-180</v>
-      </c>
-      <c r="AP4">
-        <v>-0.2449404761904762</v>
-      </c>
-      <c r="AQ4">
-        <v>117.9310344827586</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.0715963292492396</v>
+      </c>
+      <c r="C5">
+        <v>1550.212777947533</v>
+      </c>
+      <c r="D5">
+        <v>1580.681777947533</v>
+      </c>
+      <c r="E5">
+        <v>-12.73100000000001</v>
+      </c>
+      <c r="F5">
+        <v>47.46899999999999</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>1522.1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>45.3</v>
+      </c>
+      <c r="K5">
+        <v>9.44</v>
+      </c>
+      <c r="L5">
+        <v>35.86</v>
+      </c>
+      <c r="M5">
+        <v>0.7689977999999998</v>
+      </c>
+      <c r="N5">
+        <v>35.0910022</v>
+      </c>
+      <c r="O5">
+        <v>7.01820044</v>
+      </c>
+      <c r="P5">
+        <v>28.07280176</v>
+      </c>
+      <c r="Q5">
+        <v>37.51280175999999</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07340982396828825</v>
+      </c>
+      <c r="T5">
+        <v>0.9356508867007148</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.01296</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>46.63212300477323</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.0715078054479333</v>
+      </c>
+      <c r="C6">
+        <v>1536.639141329378</v>
+      </c>
+      <c r="D6">
+        <v>1582.931141329378</v>
+      </c>
+      <c r="E6">
+        <v>3.091999999999999</v>
+      </c>
+      <c r="F6">
+        <v>63.292</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>1522.1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>45.3</v>
+      </c>
+      <c r="K6">
+        <v>9.44</v>
+      </c>
+      <c r="L6">
+        <v>35.86</v>
+      </c>
+      <c r="M6">
+        <v>1.0253304</v>
+      </c>
+      <c r="N6">
+        <v>34.8346696</v>
+      </c>
+      <c r="O6">
+        <v>6.96693392</v>
+      </c>
+      <c r="P6">
+        <v>27.86773568</v>
+      </c>
+      <c r="Q6">
+        <v>37.30773568</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07394729734159719</v>
+      </c>
+      <c r="T6">
+        <v>0.9434950423571596</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.01296</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>34.97409225357992</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07141928164662698</v>
+      </c>
+      <c r="C7">
+        <v>1523.071915673868</v>
+      </c>
+      <c r="D7">
+        <v>1585.186915673868</v>
+      </c>
+      <c r="E7">
+        <v>18.91500000000001</v>
+      </c>
+      <c r="F7">
+        <v>79.11500000000001</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>1522.1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>45.3</v>
+      </c>
+      <c r="K7">
+        <v>9.44</v>
+      </c>
+      <c r="L7">
+        <v>35.86</v>
+      </c>
+      <c r="M7">
+        <v>1.281663</v>
+      </c>
+      <c r="N7">
+        <v>34.578337</v>
+      </c>
+      <c r="O7">
+        <v>6.9156674</v>
+      </c>
+      <c r="P7">
+        <v>27.6626696</v>
+      </c>
+      <c r="Q7">
+        <v>37.1026696</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07449608594381787</v>
+      </c>
+      <c r="T7">
+        <v>0.9515043381326872</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.01296</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>27.97927380286393</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07133075784532067</v>
+      </c>
+      <c r="C8">
+        <v>1509.511128428167</v>
+      </c>
+      <c r="D8">
+        <v>1587.449128428166</v>
+      </c>
+      <c r="E8">
+        <v>34.73799999999999</v>
+      </c>
+      <c r="F8">
+        <v>94.93799999999999</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>1522.1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>45.3</v>
+      </c>
+      <c r="K8">
+        <v>9.44</v>
+      </c>
+      <c r="L8">
+        <v>35.86</v>
+      </c>
+      <c r="M8">
+        <v>1.5379956</v>
+      </c>
+      <c r="N8">
+        <v>34.3220044</v>
+      </c>
+      <c r="O8">
+        <v>6.86440088</v>
+      </c>
+      <c r="P8">
+        <v>27.45760352</v>
+      </c>
+      <c r="Q8">
+        <v>36.89760352</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07505655089927731</v>
+      </c>
+      <c r="T8">
+        <v>0.9596840444566305</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+      <c r="W8">
+        <v>0.01296</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>23.31606150238662</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07124223404401435</v>
+      </c>
+      <c r="C9">
+        <v>1495.95680719634</v>
+      </c>
+      <c r="D9">
+        <v>1589.71780719634</v>
+      </c>
+      <c r="E9">
+        <v>50.56100000000001</v>
+      </c>
+      <c r="F9">
+        <v>110.761</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>1522.1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>45.3</v>
+      </c>
+      <c r="K9">
+        <v>9.44</v>
+      </c>
+      <c r="L9">
+        <v>35.86</v>
+      </c>
+      <c r="M9">
+        <v>1.7943282</v>
+      </c>
+      <c r="N9">
+        <v>34.0656718</v>
+      </c>
+      <c r="O9">
+        <v>6.813134359999999</v>
+      </c>
+      <c r="P9">
+        <v>27.25253744</v>
+      </c>
+      <c r="Q9">
+        <v>36.69253744</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07562906886453157</v>
+      </c>
+      <c r="T9">
+        <v>0.9680396584434541</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>0.01296</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>19.98519557347424</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07115371024270804</v>
+      </c>
+      <c r="C10">
+        <v>1482.408979740479</v>
+      </c>
+      <c r="D10">
+        <v>1591.992979740479</v>
+      </c>
+      <c r="E10">
+        <v>66.384</v>
+      </c>
+      <c r="F10">
+        <v>126.584</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>1522.1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>45.3</v>
+      </c>
+      <c r="K10">
+        <v>9.44</v>
+      </c>
+      <c r="L10">
+        <v>35.86</v>
+      </c>
+      <c r="M10">
+        <v>2.0506608</v>
+      </c>
+      <c r="N10">
+        <v>33.8093392</v>
+      </c>
+      <c r="O10">
+        <v>6.76186784</v>
+      </c>
+      <c r="P10">
+        <v>27.04747136</v>
+      </c>
+      <c r="Q10">
+        <v>36.48747135999999</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07621403287250873</v>
+      </c>
+      <c r="T10">
+        <v>0.9765769162126</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>0.01296</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>17.48704612678996</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07106518644140171</v>
+      </c>
+      <c r="C11">
+        <v>1468.867673981835</v>
+      </c>
+      <c r="D11">
+        <v>1594.274673981835</v>
+      </c>
+      <c r="E11">
+        <v>82.20699999999998</v>
+      </c>
+      <c r="F11">
+        <v>142.407</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>1522.1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>45.3</v>
+      </c>
+      <c r="K11">
+        <v>9.44</v>
+      </c>
+      <c r="L11">
+        <v>35.86</v>
+      </c>
+      <c r="M11">
+        <v>2.3069934</v>
+      </c>
+      <c r="N11">
+        <v>33.5530066</v>
+      </c>
+      <c r="O11">
+        <v>6.710601320000001</v>
+      </c>
+      <c r="P11">
+        <v>26.84240528</v>
+      </c>
+      <c r="Q11">
+        <v>36.28240528</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.07681185323230957</v>
+      </c>
+      <c r="T11">
+        <v>0.9853018060206281</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.2</v>
+      </c>
+      <c r="W11">
+        <v>0.01296</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>15.54404100159108</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07097666264009542</v>
+      </c>
+      <c r="C12">
+        <v>1455.332918001956</v>
+      </c>
+      <c r="D12">
+        <v>1596.562918001956</v>
+      </c>
+      <c r="E12">
+        <v>98.03000000000002</v>
+      </c>
+      <c r="F12">
+        <v>158.23</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>1522.1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>45.3</v>
+      </c>
+      <c r="K12">
+        <v>9.44</v>
+      </c>
+      <c r="L12">
+        <v>35.86</v>
+      </c>
+      <c r="M12">
+        <v>2.563326</v>
+      </c>
+      <c r="N12">
+        <v>33.296674</v>
+      </c>
+      <c r="O12">
+        <v>6.6593348</v>
+      </c>
+      <c r="P12">
+        <v>26.6373392</v>
+      </c>
+      <c r="Q12">
+        <v>36.0773392</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0774229584889949</v>
+      </c>
+      <c r="T12">
+        <v>0.9942205822688349</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.01296</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>13.98963690143197</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07102893883878908</v>
+      </c>
+      <c r="C13">
+        <v>1438.157841619332</v>
+      </c>
+      <c r="D13">
+        <v>1595.210841619331</v>
+      </c>
+      <c r="E13">
+        <v>113.853</v>
+      </c>
+      <c r="F13">
+        <v>174.053</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>1522.1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>45.3</v>
+      </c>
+      <c r="K13">
+        <v>9.44</v>
+      </c>
+      <c r="L13">
+        <v>35.86</v>
+      </c>
+      <c r="M13">
+        <v>3.0981434</v>
+      </c>
+      <c r="N13">
+        <v>32.7618566</v>
+      </c>
+      <c r="O13">
+        <v>6.552371320000001</v>
+      </c>
+      <c r="P13">
+        <v>26.20948528</v>
+      </c>
+      <c r="Q13">
+        <v>35.64948528</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07804779644807762</v>
+      </c>
+      <c r="T13">
+        <v>1.003339780455203</v>
+      </c>
+      <c r="U13">
+        <v>0.0178</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>0.01424</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>11.57467404510714</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07116441503748278</v>
+      </c>
+      <c r="C14">
+        <v>1418.84150702938</v>
+      </c>
+      <c r="D14">
+        <v>1591.71750702938</v>
+      </c>
+      <c r="E14">
+        <v>129.676</v>
+      </c>
+      <c r="F14">
+        <v>189.876</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>1522.1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>45.3</v>
+      </c>
+      <c r="K14">
+        <v>9.44</v>
+      </c>
+      <c r="L14">
+        <v>35.86</v>
+      </c>
+      <c r="M14">
+        <v>3.797519999999999</v>
+      </c>
+      <c r="N14">
+        <v>32.06248</v>
+      </c>
+      <c r="O14">
+        <v>6.412496000000001</v>
+      </c>
+      <c r="P14">
+        <v>25.649984</v>
+      </c>
+      <c r="Q14">
+        <v>35.089984</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07868683526986678</v>
+      </c>
+      <c r="T14">
+        <v>1.012666233145808</v>
+      </c>
+      <c r="U14">
+        <v>0.02</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>0.016</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>9.44300490846658</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07110629123617644</v>
+      </c>
+      <c r="C15">
+        <v>1404.515388176331</v>
+      </c>
+      <c r="D15">
+        <v>1593.214388176331</v>
+      </c>
+      <c r="E15">
+        <v>145.499</v>
+      </c>
+      <c r="F15">
+        <v>205.699</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>1522.1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>45.3</v>
+      </c>
+      <c r="K15">
+        <v>9.44</v>
+      </c>
+      <c r="L15">
+        <v>35.86</v>
+      </c>
+      <c r="M15">
+        <v>4.11398</v>
+      </c>
+      <c r="N15">
+        <v>31.74602</v>
+      </c>
+      <c r="O15">
+        <v>6.349204</v>
+      </c>
+      <c r="P15">
+        <v>25.396816</v>
+      </c>
+      <c r="Q15">
+        <v>34.836816</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07934056463928327</v>
+      </c>
+      <c r="T15">
+        <v>1.02220708704769</v>
+      </c>
+      <c r="U15">
+        <v>0.02</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.016</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>8.716619915507611</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07104816743487015</v>
+      </c>
+      <c r="C16">
+        <v>1390.192087363911</v>
+      </c>
+      <c r="D16">
+        <v>1594.714087363911</v>
+      </c>
+      <c r="E16">
+        <v>161.322</v>
+      </c>
+      <c r="F16">
+        <v>221.522</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>1522.1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>45.3</v>
+      </c>
+      <c r="K16">
+        <v>9.44</v>
+      </c>
+      <c r="L16">
+        <v>35.86</v>
+      </c>
+      <c r="M16">
+        <v>4.43044</v>
+      </c>
+      <c r="N16">
+        <v>31.42956</v>
+      </c>
+      <c r="O16">
+        <v>6.285912</v>
+      </c>
+      <c r="P16">
+        <v>25.143648</v>
+      </c>
+      <c r="Q16">
+        <v>34.583648</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08000949701729086</v>
+      </c>
+      <c r="T16">
+        <v>1.031969821272872</v>
+      </c>
+      <c r="U16">
+        <v>0.02</v>
+      </c>
+      <c r="V16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0.016</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>8.094004207257067</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07112204363356382</v>
+      </c>
+      <c r="C17">
+        <v>1372.463433525032</v>
+      </c>
+      <c r="D17">
+        <v>1592.808433525032</v>
+      </c>
+      <c r="E17">
+        <v>177.145</v>
+      </c>
+      <c r="F17">
+        <v>237.345</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>1522.1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>45.3</v>
+      </c>
+      <c r="K17">
+        <v>9.44</v>
+      </c>
+      <c r="L17">
+        <v>35.86</v>
+      </c>
+      <c r="M17">
+        <v>5.007979499999999</v>
+      </c>
+      <c r="N17">
+        <v>30.8520205</v>
+      </c>
+      <c r="O17">
+        <v>6.170404100000001</v>
+      </c>
+      <c r="P17">
+        <v>24.6816164</v>
+      </c>
+      <c r="Q17">
+        <v>34.1216164</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08069416898066331</v>
+      </c>
+      <c r="T17">
+        <v>1.041962266891588</v>
+      </c>
+      <c r="U17">
+        <v>0.0211</v>
+      </c>
+      <c r="V17">
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <v>0.01688</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>7.160572442439112</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07107271983225749</v>
+      </c>
+      <c r="C18">
+        <v>1357.912246825589</v>
+      </c>
+      <c r="D18">
+        <v>1594.080246825589</v>
+      </c>
+      <c r="E18">
+        <v>192.968</v>
+      </c>
+      <c r="F18">
+        <v>253.168</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>1522.1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>45.3</v>
+      </c>
+      <c r="K18">
+        <v>9.44</v>
+      </c>
+      <c r="L18">
+        <v>35.86</v>
+      </c>
+      <c r="M18">
+        <v>5.341844800000001</v>
+      </c>
+      <c r="N18">
+        <v>30.5181552</v>
+      </c>
+      <c r="O18">
+        <v>6.10363104</v>
+      </c>
+      <c r="P18">
+        <v>24.41452416</v>
+      </c>
+      <c r="Q18">
+        <v>33.85452416</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.08139514265744939</v>
+      </c>
+      <c r="T18">
+        <v>1.052192627882178</v>
+      </c>
+      <c r="U18">
+        <v>0.0211</v>
+      </c>
+      <c r="V18">
+        <v>0.2</v>
+      </c>
+      <c r="W18">
+        <v>0.01688</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>6.713036664786666</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07122739603095117</v>
+      </c>
+      <c r="C19">
+        <v>1338.107708947451</v>
+      </c>
+      <c r="D19">
+        <v>1590.098708947451</v>
+      </c>
+      <c r="E19">
+        <v>208.791</v>
+      </c>
+      <c r="F19">
+        <v>268.991</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>1522.1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>45.3</v>
+      </c>
+      <c r="K19">
+        <v>9.44</v>
+      </c>
+      <c r="L19">
+        <v>35.86</v>
+      </c>
+      <c r="M19">
+        <v>6.0791966</v>
+      </c>
+      <c r="N19">
+        <v>29.7808034</v>
+      </c>
+      <c r="O19">
+        <v>5.95616068</v>
+      </c>
+      <c r="P19">
+        <v>23.82464272</v>
+      </c>
+      <c r="Q19">
+        <v>33.26464272</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08211300726620624</v>
+      </c>
+      <c r="T19">
+        <v>1.062669503595433</v>
+      </c>
+      <c r="U19">
+        <v>0.0226</v>
+      </c>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>0.01808</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>5.898805773118113</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07119007222964487</v>
+      </c>
+      <c r="C20">
+        <v>1323.243643492719</v>
+      </c>
+      <c r="D20">
+        <v>1591.057643492719</v>
+      </c>
+      <c r="E20">
+        <v>224.614</v>
+      </c>
+      <c r="F20">
+        <v>284.814</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>1522.1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>45.3</v>
+      </c>
+      <c r="K20">
+        <v>9.44</v>
+      </c>
+      <c r="L20">
+        <v>35.86</v>
+      </c>
+      <c r="M20">
+        <v>6.436796399999999</v>
+      </c>
+      <c r="N20">
+        <v>29.4232036</v>
+      </c>
+      <c r="O20">
+        <v>5.88464072</v>
+      </c>
+      <c r="P20">
+        <v>23.53856288</v>
+      </c>
+      <c r="Q20">
+        <v>32.97856288</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08284838076785958</v>
+      </c>
+      <c r="T20">
+        <v>1.073401912862669</v>
+      </c>
+      <c r="U20">
+        <v>0.0226</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <v>0.01808</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>5.571094341278219</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07115274842833856</v>
+      </c>
+      <c r="C21">
+        <v>1308.38073533765</v>
+      </c>
+      <c r="D21">
+        <v>1592.01773533765</v>
+      </c>
+      <c r="E21">
+        <v>240.437</v>
+      </c>
+      <c r="F21">
+        <v>300.637</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>1522.1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>45.3</v>
+      </c>
+      <c r="K21">
+        <v>9.44</v>
+      </c>
+      <c r="L21">
+        <v>35.86</v>
+      </c>
+      <c r="M21">
+        <v>6.7943962</v>
+      </c>
+      <c r="N21">
+        <v>29.0656038</v>
+      </c>
+      <c r="O21">
+        <v>5.81312076</v>
+      </c>
+      <c r="P21">
+        <v>23.25248304</v>
+      </c>
+      <c r="Q21">
+        <v>32.69248304</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.08360191163992414</v>
+      </c>
+      <c r="T21">
+        <v>1.084399319889591</v>
+      </c>
+      <c r="U21">
+        <v>0.0226</v>
+      </c>
+      <c r="V21">
+        <v>0.2</v>
+      </c>
+      <c r="W21">
+        <v>0.01808</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>5.277878849631995</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07111542462703223</v>
+      </c>
+      <c r="C22">
+        <v>1293.518986578556</v>
+      </c>
+      <c r="D22">
+        <v>1592.978986578556</v>
+      </c>
+      <c r="E22">
+        <v>256.26</v>
+      </c>
+      <c r="F22">
+        <v>316.46</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <v>1522.1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>45.3</v>
+      </c>
+      <c r="K22">
+        <v>9.44</v>
+      </c>
+      <c r="L22">
+        <v>35.86</v>
+      </c>
+      <c r="M22">
+        <v>7.151996</v>
+      </c>
+      <c r="N22">
+        <v>28.708004</v>
+      </c>
+      <c r="O22">
+        <v>5.741600800000001</v>
+      </c>
+      <c r="P22">
+        <v>22.9664032</v>
+      </c>
+      <c r="Q22">
+        <v>32.4064032</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08437428078379029</v>
+      </c>
+      <c r="T22">
+        <v>1.095671662092185</v>
+      </c>
+      <c r="U22">
+        <v>0.0226</v>
+      </c>
+      <c r="V22">
+        <v>0.2</v>
+      </c>
+      <c r="W22">
+        <v>0.01808</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>5.013984907150395</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07107810082572592</v>
+      </c>
+      <c r="C23">
+        <v>1278.658399316816</v>
+      </c>
+      <c r="D23">
+        <v>1593.941399316816</v>
+      </c>
+      <c r="E23">
+        <v>272.083</v>
+      </c>
+      <c r="F23">
+        <v>332.283</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>1522.1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>45.3</v>
+      </c>
+      <c r="K23">
+        <v>9.44</v>
+      </c>
+      <c r="L23">
+        <v>35.86</v>
+      </c>
+      <c r="M23">
+        <v>7.509595799999999</v>
+      </c>
+      <c r="N23">
+        <v>28.3504042</v>
+      </c>
+      <c r="O23">
+        <v>5.670080840000001</v>
+      </c>
+      <c r="P23">
+        <v>22.68032336</v>
+      </c>
+      <c r="Q23">
+        <v>32.12032336</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08516620357686824</v>
+      </c>
+      <c r="T23">
+        <v>1.107229380046744</v>
+      </c>
+      <c r="U23">
+        <v>0.0226</v>
+      </c>
+      <c r="V23">
+        <v>0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.01808</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>4.775223721095616</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.0710407770244196</v>
+      </c>
+      <c r="C24">
+        <v>1263.798975658891</v>
+      </c>
+      <c r="D24">
+        <v>1594.904975658891</v>
+      </c>
+      <c r="E24">
+        <v>287.906</v>
+      </c>
+      <c r="F24">
+        <v>348.106</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>1522.1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>45.3</v>
+      </c>
+      <c r="K24">
+        <v>9.44</v>
+      </c>
+      <c r="L24">
+        <v>35.86</v>
+      </c>
+      <c r="M24">
+        <v>7.8671956</v>
+      </c>
+      <c r="N24">
+        <v>27.9928044</v>
+      </c>
+      <c r="O24">
+        <v>5.598560880000001</v>
+      </c>
+      <c r="P24">
+        <v>22.39424352</v>
+      </c>
+      <c r="Q24">
+        <v>31.83424352</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08597843208258923</v>
+      </c>
+      <c r="T24">
+        <v>1.119083449743728</v>
+      </c>
+      <c r="U24">
+        <v>0.0226</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24">
+        <v>0.01808</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>4.558168097409451</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08765869205143983</v>
+      </c>
+      <c r="C25">
+        <v>909.7365963661348</v>
+      </c>
+      <c r="D25">
+        <v>1256.665596366135</v>
+      </c>
+      <c r="E25">
+        <v>303.729</v>
+      </c>
+      <c r="F25">
+        <v>363.929</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>1522.1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>45.3</v>
+      </c>
+      <c r="K25">
+        <v>9.44</v>
+      </c>
+      <c r="L25">
+        <v>35.86</v>
+      </c>
+      <c r="M25">
+        <v>39.668261</v>
+      </c>
+      <c r="N25">
+        <v>-3.808261000000002</v>
+      </c>
+      <c r="O25">
+        <v>-0.7616522000000003</v>
+      </c>
+      <c r="P25">
+        <v>-3.046608800000001</v>
+      </c>
+      <c r="Q25">
+        <v>6.393391199999998</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08717056416558933</v>
+      </c>
+      <c r="T25">
+        <v>1.136482022559575</v>
+      </c>
+      <c r="U25">
+        <v>0.109</v>
+      </c>
+      <c r="V25">
+        <v>0.1807994557664123</v>
+      </c>
+      <c r="W25">
+        <v>0.08929285932146105</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.9039972788320617</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08865569205143982</v>
+      </c>
+      <c r="C26">
+        <v>878.1252443627918</v>
+      </c>
+      <c r="D26">
+        <v>1240.877244362792</v>
+      </c>
+      <c r="E26">
+        <v>319.552</v>
+      </c>
+      <c r="F26">
+        <v>379.752</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>1522.1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>45.3</v>
+      </c>
+      <c r="K26">
+        <v>9.44</v>
+      </c>
+      <c r="L26">
+        <v>35.86</v>
+      </c>
+      <c r="M26">
+        <v>41.392968</v>
+      </c>
+      <c r="N26">
+        <v>-5.532967999999997</v>
+      </c>
+      <c r="O26">
+        <v>-1.106593599999999</v>
+      </c>
+      <c r="P26">
+        <v>-4.426374399999998</v>
+      </c>
+      <c r="Q26">
+        <v>5.013625600000002</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08819517685197865</v>
+      </c>
+      <c r="T26">
+        <v>1.151435733382727</v>
+      </c>
+      <c r="U26">
+        <v>0.109</v>
+      </c>
+      <c r="V26">
+        <v>0.1732661451094785</v>
+      </c>
+      <c r="W26">
+        <v>0.09011399018306683</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.8663307255473925</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.08965269205143982</v>
+      </c>
+      <c r="C27">
+        <v>846.9056897353787</v>
+      </c>
+      <c r="D27">
+        <v>1225.480689735379</v>
+      </c>
+      <c r="E27">
+        <v>335.375</v>
+      </c>
+      <c r="F27">
+        <v>395.575</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>1522.1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>45.3</v>
+      </c>
+      <c r="K27">
+        <v>9.44</v>
+      </c>
+      <c r="L27">
+        <v>35.86</v>
+      </c>
+      <c r="M27">
+        <v>43.117675</v>
+      </c>
+      <c r="N27">
+        <v>-7.257674999999999</v>
+      </c>
+      <c r="O27">
+        <v>-1.451535</v>
+      </c>
+      <c r="P27">
+        <v>-5.806139999999999</v>
+      </c>
+      <c r="Q27">
+        <v>3.63386</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08924711254333838</v>
+      </c>
+      <c r="T27">
+        <v>1.16678820982783</v>
+      </c>
+      <c r="U27">
+        <v>0.109</v>
+      </c>
+      <c r="V27">
+        <v>0.1663354993050994</v>
+      </c>
+      <c r="W27">
+        <v>0.09086943057574416</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.8316774965254968</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09934064259968826</v>
+      </c>
+      <c r="C28">
+        <v>699.226719173582</v>
+      </c>
+      <c r="D28">
+        <v>1093.624719173582</v>
+      </c>
+      <c r="E28">
+        <v>351.198</v>
+      </c>
+      <c r="F28">
+        <v>411.398</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
+      <c r="H28">
+        <v>1522.1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>45.3</v>
+      </c>
+      <c r="K28">
+        <v>9.44</v>
+      </c>
+      <c r="L28">
+        <v>35.86</v>
+      </c>
+      <c r="M28">
+        <v>57.6779996</v>
+      </c>
+      <c r="N28">
+        <v>-21.8179996</v>
+      </c>
+      <c r="O28">
+        <v>-4.36359992</v>
+      </c>
+      <c r="P28">
+        <v>-17.45439968</v>
+      </c>
+      <c r="Q28">
+        <v>-8.014399680000002</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0911098445348003</v>
+      </c>
+      <c r="T28">
+        <v>1.193973853643655</v>
+      </c>
+      <c r="U28">
+        <v>0.1402</v>
+      </c>
+      <c r="V28">
+        <v>0.1243455052140886</v>
+      </c>
+      <c r="W28">
+        <v>0.1227667601689848</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.6217275260704429</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1006496425996883</v>
+      </c>
+      <c r="C29">
+        <v>667.732560352835</v>
+      </c>
+      <c r="D29">
+        <v>1077.953560352835</v>
+      </c>
+      <c r="E29">
+        <v>367.021</v>
+      </c>
+      <c r="F29">
+        <v>427.221</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>1522.1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>45.3</v>
+      </c>
+      <c r="K29">
+        <v>9.44</v>
+      </c>
+      <c r="L29">
+        <v>35.86</v>
+      </c>
+      <c r="M29">
+        <v>59.8963842</v>
+      </c>
+      <c r="N29">
+        <v>-24.0363842</v>
+      </c>
+      <c r="O29">
+        <v>-4.80727684</v>
+      </c>
+      <c r="P29">
+        <v>-19.22910736</v>
+      </c>
+      <c r="Q29">
+        <v>-9.789107360000001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09223052733664687</v>
+      </c>
+      <c r="T29">
+        <v>1.210329659857952</v>
+      </c>
+      <c r="U29">
+        <v>0.1402</v>
+      </c>
+      <c r="V29">
+        <v>0.1197401161320853</v>
+      </c>
+      <c r="W29">
+        <v>0.1234124357182816</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.5987005806604266</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1019586425996883</v>
+      </c>
+      <c r="C30">
+        <v>636.681178294639</v>
+      </c>
+      <c r="D30">
+        <v>1062.725178294639</v>
+      </c>
+      <c r="E30">
+        <v>382.8440000000001</v>
+      </c>
+      <c r="F30">
+        <v>443.044</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>1522.1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>45.3</v>
+      </c>
+      <c r="K30">
+        <v>9.44</v>
+      </c>
+      <c r="L30">
+        <v>35.86</v>
+      </c>
+      <c r="M30">
+        <v>62.1147688</v>
+      </c>
+      <c r="N30">
+        <v>-26.2547688</v>
+      </c>
+      <c r="O30">
+        <v>-5.250953760000001</v>
+      </c>
+      <c r="P30">
+        <v>-21.00381504</v>
+      </c>
+      <c r="Q30">
+        <v>-11.56381504</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.09338234021632252</v>
+      </c>
+      <c r="T30">
+        <v>1.227139794022646</v>
+      </c>
+      <c r="U30">
+        <v>0.1402</v>
+      </c>
+      <c r="V30">
+        <v>0.1154636834130823</v>
+      </c>
+      <c r="W30">
+        <v>0.1240119915854859</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.5773184170654113</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1032676425996882</v>
+      </c>
+      <c r="C31">
+        <v>606.0540689235665</v>
+      </c>
+      <c r="D31">
+        <v>1047.921068923567</v>
+      </c>
+      <c r="E31">
+        <v>398.667</v>
+      </c>
+      <c r="F31">
+        <v>458.867</v>
+      </c>
+      <c r="G31">
+        <v>17</v>
+      </c>
+      <c r="H31">
+        <v>1522.1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>45.3</v>
+      </c>
+      <c r="K31">
+        <v>9.44</v>
+      </c>
+      <c r="L31">
+        <v>35.86</v>
+      </c>
+      <c r="M31">
+        <v>64.33315339999999</v>
+      </c>
+      <c r="N31">
+        <v>-28.47315339999999</v>
+      </c>
+      <c r="O31">
+        <v>-5.694630679999998</v>
+      </c>
+      <c r="P31">
+        <v>-22.77852271999999</v>
+      </c>
+      <c r="Q31">
+        <v>-13.33852271999999</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09456659852922845</v>
+      </c>
+      <c r="T31">
+        <v>1.244423453093387</v>
+      </c>
+      <c r="U31">
+        <v>0.1402</v>
+      </c>
+      <c r="V31">
+        <v>0.1114821770884932</v>
+      </c>
+      <c r="W31">
+        <v>0.1245701987721932</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.5574108854424662</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1045766425996882</v>
+      </c>
+      <c r="C32">
+        <v>575.8337450696564</v>
+      </c>
+      <c r="D32">
+        <v>1033.523745069656</v>
+      </c>
+      <c r="E32">
+        <v>414.49</v>
+      </c>
+      <c r="F32">
+        <v>474.6899999999999</v>
+      </c>
+      <c r="G32">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>1522.1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>45.3</v>
+      </c>
+      <c r="K32">
+        <v>9.44</v>
+      </c>
+      <c r="L32">
+        <v>35.86</v>
+      </c>
+      <c r="M32">
+        <v>66.55153799999999</v>
+      </c>
+      <c r="N32">
+        <v>-30.69153799999999</v>
+      </c>
+      <c r="O32">
+        <v>-6.138307599999999</v>
+      </c>
+      <c r="P32">
+        <v>-24.5532304</v>
+      </c>
+      <c r="Q32">
+        <v>-15.1132304</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09578469279393172</v>
+      </c>
+      <c r="T32">
+        <v>1.262200930994721</v>
+      </c>
+      <c r="U32">
+        <v>0.1402</v>
+      </c>
+      <c r="V32">
+        <v>0.1077661045188768</v>
+      </c>
+      <c r="W32">
+        <v>0.1250911921464535</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.5388305225943839</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1058856425996882</v>
+      </c>
+      <c r="C33">
+        <v>546.0036675591468</v>
+      </c>
+      <c r="D33">
+        <v>1019.516667559147</v>
+      </c>
+      <c r="E33">
+        <v>430.313</v>
+      </c>
+      <c r="F33">
+        <v>490.513</v>
+      </c>
+      <c r="G33">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>1522.1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>45.3</v>
+      </c>
+      <c r="K33">
+        <v>9.44</v>
+      </c>
+      <c r="L33">
+        <v>35.86</v>
+      </c>
+      <c r="M33">
+        <v>68.76992259999999</v>
+      </c>
+      <c r="N33">
+        <v>-32.90992259999999</v>
+      </c>
+      <c r="O33">
+        <v>-6.581984519999998</v>
+      </c>
+      <c r="P33">
+        <v>-26.32793807999999</v>
+      </c>
+      <c r="Q33">
+        <v>-16.88793807999999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09703809413877132</v>
+      </c>
+      <c r="T33">
+        <v>1.280493698110587</v>
+      </c>
+      <c r="U33">
+        <v>0.1402</v>
+      </c>
+      <c r="V33">
+        <v>0.104289778566655</v>
+      </c>
+      <c r="W33">
+        <v>0.125578573044955</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.5214488928332748</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1071946425996883</v>
+      </c>
+      <c r="C34">
+        <v>516.5481818337313</v>
+      </c>
+      <c r="D34">
+        <v>1005.884181833731</v>
+      </c>
+      <c r="E34">
+        <v>446.136</v>
+      </c>
+      <c r="F34">
+        <v>506.336</v>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+      <c r="H34">
+        <v>1522.1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>45.3</v>
+      </c>
+      <c r="K34">
+        <v>9.44</v>
+      </c>
+      <c r="L34">
+        <v>35.86</v>
+      </c>
+      <c r="M34">
+        <v>70.98830719999999</v>
+      </c>
+      <c r="N34">
+        <v>-35.12830719999999</v>
+      </c>
+      <c r="O34">
+        <v>-7.025661439999999</v>
+      </c>
+      <c r="P34">
+        <v>-28.10264575999999</v>
+      </c>
+      <c r="Q34">
+        <v>-18.66264576</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09832836022904737</v>
+      </c>
+      <c r="T34">
+        <v>1.299324487788684</v>
+      </c>
+      <c r="U34">
+        <v>0.1402</v>
+      </c>
+      <c r="V34">
+        <v>0.101030722986447</v>
+      </c>
+      <c r="W34">
+        <v>0.1260354926373001</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.505153614932235</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1233375962351655</v>
+      </c>
+      <c r="C35">
+        <v>358.3340560464386</v>
+      </c>
+      <c r="D35">
+        <v>863.4930560464386</v>
+      </c>
+      <c r="E35">
+        <v>461.959</v>
+      </c>
+      <c r="F35">
+        <v>522.159</v>
+      </c>
+      <c r="G35">
+        <v>17</v>
+      </c>
+      <c r="H35">
+        <v>1522.1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>45.3</v>
+      </c>
+      <c r="K35">
+        <v>9.44</v>
+      </c>
+      <c r="L35">
+        <v>35.86</v>
+      </c>
+      <c r="M35">
+        <v>95.9206083</v>
+      </c>
+      <c r="N35">
+        <v>-60.0606083</v>
+      </c>
+      <c r="O35">
+        <v>-12.01212166</v>
+      </c>
+      <c r="P35">
+        <v>-48.04848664</v>
+      </c>
+      <c r="Q35">
+        <v>-38.60848664</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1003719978973575</v>
+      </c>
+      <c r="T35">
+        <v>1.329150359676823</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.07477016802863624</v>
+      </c>
+      <c r="W35">
+        <v>0.1699647201331395</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.3738508401431812</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1250815962351655</v>
+      </c>
+      <c r="C36">
+        <v>329.5043957592005</v>
+      </c>
+      <c r="D36">
+        <v>850.4863957592005</v>
+      </c>
+      <c r="E36">
+        <v>477.782</v>
+      </c>
+      <c r="F36">
+        <v>537.982</v>
+      </c>
+      <c r="G36">
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>1522.1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>45.3</v>
+      </c>
+      <c r="K36">
+        <v>9.44</v>
+      </c>
+      <c r="L36">
+        <v>35.86</v>
+      </c>
+      <c r="M36">
+        <v>98.8272934</v>
+      </c>
+      <c r="N36">
+        <v>-62.9672934</v>
+      </c>
+      <c r="O36">
+        <v>-12.59345868</v>
+      </c>
+      <c r="P36">
+        <v>-50.37383472</v>
+      </c>
+      <c r="Q36">
+        <v>-40.93383472000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.101751876653378</v>
+      </c>
+      <c r="T36">
+        <v>1.349289001490108</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.07257104543955871</v>
+      </c>
+      <c r="W36">
+        <v>0.1703686989527531</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.3628552271977935</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1268255962351655</v>
+      </c>
+      <c r="C37">
+        <v>301.0607554755629</v>
+      </c>
+      <c r="D37">
+        <v>837.865755475563</v>
+      </c>
+      <c r="E37">
+        <v>493.6050000000001</v>
+      </c>
+      <c r="F37">
+        <v>553.8050000000001</v>
+      </c>
+      <c r="G37">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>1522.1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>45.3</v>
+      </c>
+      <c r="K37">
+        <v>9.44</v>
+      </c>
+      <c r="L37">
+        <v>35.86</v>
+      </c>
+      <c r="M37">
+        <v>101.7339785</v>
+      </c>
+      <c r="N37">
+        <v>-65.87397850000001</v>
+      </c>
+      <c r="O37">
+        <v>-13.1747957</v>
+      </c>
+      <c r="P37">
+        <v>-52.6991828</v>
+      </c>
+      <c r="Q37">
+        <v>-43.2591828</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1031742132172761</v>
+      </c>
+      <c r="T37">
+        <v>1.370047293820725</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.07049758699842845</v>
+      </c>
+      <c r="W37">
+        <v>0.1707495932683887</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.3524879349921423</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1285695962351655</v>
+      </c>
+      <c r="C38">
+        <v>272.9862016540154</v>
+      </c>
+      <c r="D38">
+        <v>825.6142016540153</v>
+      </c>
+      <c r="E38">
+        <v>509.4279999999999</v>
+      </c>
+      <c r="F38">
+        <v>569.6279999999999</v>
+      </c>
+      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="H38">
+        <v>1522.1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>45.3</v>
+      </c>
+      <c r="K38">
+        <v>9.44</v>
+      </c>
+      <c r="L38">
+        <v>35.86</v>
+      </c>
+      <c r="M38">
+        <v>104.6406636</v>
+      </c>
+      <c r="N38">
+        <v>-68.78066359999998</v>
+      </c>
+      <c r="O38">
+        <v>-13.75613272</v>
+      </c>
+      <c r="P38">
+        <v>-55.02453087999999</v>
+      </c>
+      <c r="Q38">
+        <v>-45.58453087999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1046409977987961</v>
+      </c>
+      <c r="T38">
+        <v>1.391454282786674</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.06853932069291656</v>
+      </c>
+      <c r="W38">
+        <v>0.1711093267887112</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.3426966034645829</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1303135962351655</v>
+      </c>
+      <c r="C39">
+        <v>245.2647769110096</v>
+      </c>
+      <c r="D39">
+        <v>813.7157769110096</v>
+      </c>
+      <c r="E39">
+        <v>525.251</v>
+      </c>
+      <c r="F39">
+        <v>585.451</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>1522.1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>45.3</v>
+      </c>
+      <c r="K39">
+        <v>9.44</v>
+      </c>
+      <c r="L39">
+        <v>35.86</v>
+      </c>
+      <c r="M39">
+        <v>107.5473487</v>
+      </c>
+      <c r="N39">
+        <v>-71.6873487</v>
+      </c>
+      <c r="O39">
+        <v>-14.33746974</v>
+      </c>
+      <c r="P39">
+        <v>-57.34987896</v>
+      </c>
+      <c r="Q39">
+        <v>-47.90987896</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1061543469702056</v>
+      </c>
+      <c r="T39">
+        <v>1.413540858703923</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.06668690662013503</v>
+      </c>
+      <c r="W39">
+        <v>0.1714496152538812</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.3334345331006752</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1320575962351656</v>
+      </c>
+      <c r="C40">
+        <v>217.881430680262</v>
+      </c>
+      <c r="D40">
+        <v>802.155430680262</v>
+      </c>
+      <c r="E40">
+        <v>541.074</v>
+      </c>
+      <c r="F40">
+        <v>601.274</v>
+      </c>
+      <c r="G40">
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <v>1522.1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>45.3</v>
+      </c>
+      <c r="K40">
+        <v>9.44</v>
+      </c>
+      <c r="L40">
+        <v>35.86</v>
+      </c>
+      <c r="M40">
+        <v>110.4540338</v>
+      </c>
+      <c r="N40">
+        <v>-74.59403380000001</v>
+      </c>
+      <c r="O40">
+        <v>-14.91880676</v>
+      </c>
+      <c r="P40">
+        <v>-59.67522704</v>
+      </c>
+      <c r="Q40">
+        <v>-50.23522704000001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1077165138568218</v>
+      </c>
+      <c r="T40">
+        <v>1.43633990481205</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.06493198802486831</v>
+      </c>
+      <c r="W40">
+        <v>0.1717719937998317</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.3246599401243415</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1338015962351655</v>
+      </c>
+      <c r="C41">
+        <v>190.8219556999421</v>
+      </c>
+      <c r="D41">
+        <v>790.9189556999421</v>
+      </c>
+      <c r="E41">
+        <v>556.8969999999999</v>
+      </c>
+      <c r="F41">
+        <v>617.097</v>
+      </c>
+      <c r="G41">
+        <v>17</v>
+      </c>
+      <c r="H41">
+        <v>1522.1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>45.3</v>
+      </c>
+      <c r="K41">
+        <v>9.44</v>
+      </c>
+      <c r="L41">
+        <v>35.86</v>
+      </c>
+      <c r="M41">
+        <v>113.3607189</v>
+      </c>
+      <c r="N41">
+        <v>-77.5007189</v>
+      </c>
+      <c r="O41">
+        <v>-15.50014378</v>
+      </c>
+      <c r="P41">
+        <v>-62.00057511999999</v>
+      </c>
+      <c r="Q41">
+        <v>-52.56057512</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1093298993298844</v>
+      </c>
+      <c r="T41">
+        <v>1.459886460628641</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.06326706525499991</v>
+      </c>
+      <c r="W41">
+        <v>0.1720778401126565</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.3163353262749995</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1355455962351655</v>
+      </c>
+      <c r="C42">
+        <v>164.0729297641835</v>
+      </c>
+      <c r="D42">
+        <v>779.9929297641836</v>
+      </c>
+      <c r="E42">
+        <v>572.72</v>
+      </c>
+      <c r="F42">
+        <v>632.9200000000001</v>
+      </c>
+      <c r="G42">
+        <v>17</v>
+      </c>
+      <c r="H42">
+        <v>1522.1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>45.3</v>
+      </c>
+      <c r="K42">
+        <v>9.44</v>
+      </c>
+      <c r="L42">
+        <v>35.86</v>
+      </c>
+      <c r="M42">
+        <v>116.267404</v>
+      </c>
+      <c r="N42">
+        <v>-80.40740400000001</v>
+      </c>
+      <c r="O42">
+        <v>-16.0814808</v>
+      </c>
+      <c r="P42">
+        <v>-64.32592320000001</v>
+      </c>
+      <c r="Q42">
+        <v>-54.88592320000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1109970643187158</v>
+      </c>
+      <c r="T42">
+        <v>1.484217901639119</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.0616853886236249</v>
+      </c>
+      <c r="W42">
+        <v>0.1723683941098401</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.3084269431181245</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1372895962351655</v>
+      </c>
+      <c r="C43">
+        <v>137.6216622368031</v>
+      </c>
+      <c r="D43">
+        <v>769.3646622368032</v>
+      </c>
+      <c r="E43">
+        <v>588.543</v>
+      </c>
+      <c r="F43">
+        <v>648.7430000000001</v>
+      </c>
+      <c r="G43">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <v>1522.1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>45.3</v>
+      </c>
+      <c r="K43">
+        <v>9.44</v>
+      </c>
+      <c r="L43">
+        <v>35.86</v>
+      </c>
+      <c r="M43">
+        <v>119.1740891</v>
+      </c>
+      <c r="N43">
+        <v>-83.31408910000002</v>
+      </c>
+      <c r="O43">
+        <v>-16.66281782</v>
+      </c>
+      <c r="P43">
+        <v>-66.65127128000002</v>
+      </c>
+      <c r="Q43">
+        <v>-57.21127128000002</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1127207433749652</v>
+      </c>
+      <c r="T43">
+        <v>1.509374137260121</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.06018086694987795</v>
+      </c>
+      <c r="W43">
+        <v>0.1726447747413074</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.3009043347493897</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1390335962351655</v>
+      </c>
+      <c r="C44">
+        <v>111.4561448790884</v>
+      </c>
+      <c r="D44">
+        <v>759.0221448790883</v>
+      </c>
+      <c r="E44">
+        <v>604.3659999999999</v>
+      </c>
+      <c r="F44">
+        <v>664.5659999999999</v>
+      </c>
+      <c r="G44">
+        <v>17</v>
+      </c>
+      <c r="H44">
+        <v>1522.1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>45.3</v>
+      </c>
+      <c r="K44">
+        <v>9.44</v>
+      </c>
+      <c r="L44">
+        <v>35.86</v>
+      </c>
+      <c r="M44">
+        <v>122.0807742</v>
+      </c>
+      <c r="N44">
+        <v>-86.22077419999998</v>
+      </c>
+      <c r="O44">
+        <v>-17.24415484</v>
+      </c>
+      <c r="P44">
+        <v>-68.97661935999999</v>
+      </c>
+      <c r="Q44">
+        <v>-59.53661935999999</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1145038596400508</v>
+      </c>
+      <c r="T44">
+        <v>1.535397829281847</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.05874798916535705</v>
+      </c>
+      <c r="W44">
+        <v>0.1729079943903239</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.2937399458267853</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1407775962351656</v>
+      </c>
+      <c r="C45">
+        <v>85.56500659109076</v>
+      </c>
+      <c r="D45">
+        <v>748.9540065910908</v>
+      </c>
+      <c r="E45">
+        <v>620.189</v>
+      </c>
+      <c r="F45">
+        <v>680.389</v>
+      </c>
+      <c r="G45">
+        <v>17</v>
+      </c>
+      <c r="H45">
+        <v>1522.1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>45.3</v>
+      </c>
+      <c r="K45">
+        <v>9.44</v>
+      </c>
+      <c r="L45">
+        <v>35.86</v>
+      </c>
+      <c r="M45">
+        <v>124.9874593</v>
+      </c>
+      <c r="N45">
+        <v>-89.1274593</v>
+      </c>
+      <c r="O45">
+        <v>-17.82549186</v>
+      </c>
+      <c r="P45">
+        <v>-71.30196744</v>
+      </c>
+      <c r="Q45">
+        <v>-61.86196744</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1163495413881219</v>
+      </c>
+      <c r="T45">
+        <v>1.562334633304336</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.05738175685918595</v>
+      </c>
+      <c r="W45">
+        <v>0.1731589712649675</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.2869087842959298</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1425215962351655</v>
+      </c>
+      <c r="C46">
+        <v>59.93747170780387</v>
+      </c>
+      <c r="D46">
+        <v>739.1494717078039</v>
+      </c>
+      <c r="E46">
+        <v>636.0119999999999</v>
+      </c>
+      <c r="F46">
+        <v>696.212</v>
+      </c>
+      <c r="G46">
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <v>1522.1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>45.3</v>
+      </c>
+      <c r="K46">
+        <v>9.44</v>
+      </c>
+      <c r="L46">
+        <v>35.86</v>
+      </c>
+      <c r="M46">
+        <v>127.8941444</v>
+      </c>
+      <c r="N46">
+        <v>-92.0341444</v>
+      </c>
+      <c r="O46">
+        <v>-18.40682888</v>
+      </c>
+      <c r="P46">
+        <v>-73.62731552</v>
+      </c>
+      <c r="Q46">
+        <v>-64.18731552</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1182611403414812</v>
+      </c>
+      <c r="T46">
+        <v>1.590233466041913</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.05607762602147718</v>
+      </c>
+      <c r="W46">
+        <v>0.1733985400998546</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2803881301073859</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1442655962351655</v>
+      </c>
+      <c r="C47">
+        <v>34.56332152866992</v>
+      </c>
+      <c r="D47">
+        <v>729.5983215286699</v>
+      </c>
+      <c r="E47">
+        <v>651.8349999999999</v>
+      </c>
+      <c r="F47">
+        <v>712.035</v>
+      </c>
+      <c r="G47">
+        <v>17</v>
+      </c>
+      <c r="H47">
+        <v>1522.1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>45.3</v>
+      </c>
+      <c r="K47">
+        <v>9.44</v>
+      </c>
+      <c r="L47">
+        <v>35.86</v>
+      </c>
+      <c r="M47">
+        <v>130.8008295</v>
+      </c>
+      <c r="N47">
+        <v>-94.94082949999999</v>
+      </c>
+      <c r="O47">
+        <v>-18.9881659</v>
+      </c>
+      <c r="P47">
+        <v>-75.95266359999999</v>
+      </c>
+      <c r="Q47">
+        <v>-66.5126636</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1202422519840536</v>
+      </c>
+      <c r="T47">
+        <v>1.61914680178813</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.05483145655433325</v>
+      </c>
+      <c r="W47">
+        <v>0.173627461430969</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2741572827716662</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1460095962351656</v>
+      </c>
+      <c r="C48">
+        <v>9.432858791692411</v>
+      </c>
+      <c r="D48">
+        <v>720.2908587916925</v>
+      </c>
+      <c r="E48">
+        <v>667.658</v>
+      </c>
+      <c r="F48">
+        <v>727.8580000000001</v>
+      </c>
+      <c r="G48">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>1522.1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>45.3</v>
+      </c>
+      <c r="K48">
+        <v>9.44</v>
+      </c>
+      <c r="L48">
+        <v>35.86</v>
+      </c>
+      <c r="M48">
+        <v>133.7075146</v>
+      </c>
+      <c r="N48">
+        <v>-97.84751460000003</v>
+      </c>
+      <c r="O48">
+        <v>-19.56950292000001</v>
+      </c>
+      <c r="P48">
+        <v>-78.27801168000002</v>
+      </c>
+      <c r="Q48">
+        <v>-68.83801168000002</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1222967381319065</v>
+      </c>
+      <c r="T48">
+        <v>1.649131001821243</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.05363946836836947</v>
+      </c>
+      <c r="W48">
+        <v>0.1738464296607306</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.2681973418418473</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1477535962351655</v>
+      </c>
+      <c r="C49">
+        <v>-15.46312516748924</v>
+      </c>
+      <c r="D49">
+        <v>711.2178748325108</v>
+      </c>
+      <c r="E49">
+        <v>683.481</v>
+      </c>
+      <c r="F49">
+        <v>743.681</v>
+      </c>
+      <c r="G49">
+        <v>17</v>
+      </c>
+      <c r="H49">
+        <v>1522.1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>45.3</v>
+      </c>
+      <c r="K49">
+        <v>9.44</v>
+      </c>
+      <c r="L49">
+        <v>35.86</v>
+      </c>
+      <c r="M49">
+        <v>136.6141997</v>
+      </c>
+      <c r="N49">
+        <v>-100.7541997</v>
+      </c>
+      <c r="O49">
+        <v>-20.15083994</v>
+      </c>
+      <c r="P49">
+        <v>-80.60335976</v>
+      </c>
+      <c r="Q49">
+        <v>-71.16335976000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1244287520589236</v>
+      </c>
+      <c r="T49">
+        <v>1.680246681100889</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.05249820308393608</v>
+      </c>
+      <c r="W49">
+        <v>0.1740560800934809</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2624910154196805</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1494975962351655</v>
+      </c>
+      <c r="C50">
+        <v>-40.13338080536266</v>
+      </c>
+      <c r="D50">
+        <v>702.3706191946372</v>
+      </c>
+      <c r="E50">
+        <v>699.3039999999999</v>
+      </c>
+      <c r="F50">
+        <v>759.5039999999999</v>
+      </c>
+      <c r="G50">
+        <v>17</v>
+      </c>
+      <c r="H50">
+        <v>1522.1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>45.3</v>
+      </c>
+      <c r="K50">
+        <v>9.44</v>
+      </c>
+      <c r="L50">
+        <v>35.86</v>
+      </c>
+      <c r="M50">
+        <v>139.5208848</v>
+      </c>
+      <c r="N50">
+        <v>-103.6608848</v>
+      </c>
+      <c r="O50">
+        <v>-20.73217696</v>
+      </c>
+      <c r="P50">
+        <v>-82.92870783999999</v>
+      </c>
+      <c r="Q50">
+        <v>-73.48870783999999</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1266427665215951</v>
+      </c>
+      <c r="T50">
+        <v>1.712559117275906</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.05140449051968742</v>
+      </c>
+      <c r="W50">
+        <v>0.1742569950915334</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.2570224525984371</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1512415962351655</v>
+      </c>
+      <c r="C51">
+        <v>-64.58622851995392</v>
+      </c>
+      <c r="D51">
+        <v>693.7407714800461</v>
+      </c>
+      <c r="E51">
+        <v>715.127</v>
+      </c>
+      <c r="F51">
+        <v>775.327</v>
+      </c>
+      <c r="G51">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>1522.1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>45.3</v>
+      </c>
+      <c r="K51">
+        <v>9.44</v>
+      </c>
+      <c r="L51">
+        <v>35.86</v>
+      </c>
+      <c r="M51">
+        <v>142.4275699</v>
+      </c>
+      <c r="N51">
+        <v>-106.5675699</v>
+      </c>
+      <c r="O51">
+        <v>-21.31351398</v>
+      </c>
+      <c r="P51">
+        <v>-85.25405592000001</v>
+      </c>
+      <c r="Q51">
+        <v>-75.81405592000002</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1289436050808421</v>
+      </c>
+      <c r="T51">
+        <v>1.746138707810728</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.05035541928459175</v>
+      </c>
+      <c r="W51">
+        <v>0.1744497094774205</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.2517770964229588</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1529855962351655</v>
+      </c>
+      <c r="C52">
+        <v>-88.8295847502402</v>
+      </c>
+      <c r="D52">
+        <v>685.3204152497598</v>
+      </c>
+      <c r="E52">
+        <v>730.9499999999999</v>
+      </c>
+      <c r="F52">
+        <v>791.15</v>
+      </c>
+      <c r="G52">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>1522.1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>45.3</v>
+      </c>
+      <c r="K52">
+        <v>9.44</v>
+      </c>
+      <c r="L52">
+        <v>35.86</v>
+      </c>
+      <c r="M52">
+        <v>145.334255</v>
+      </c>
+      <c r="N52">
+        <v>-109.474255</v>
+      </c>
+      <c r="O52">
+        <v>-21.894851</v>
+      </c>
+      <c r="P52">
+        <v>-87.57940399999998</v>
+      </c>
+      <c r="Q52">
+        <v>-78.13940399999998</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.131336477182459</v>
+      </c>
+      <c r="T52">
+        <v>1.781061481966943</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.04934831089889993</v>
+      </c>
+      <c r="W52">
+        <v>0.1746347152878721</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.2467415544944996</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1547295962351655</v>
+      </c>
+      <c r="C53">
+        <v>-112.870986197652</v>
+      </c>
+      <c r="D53">
+        <v>677.102013802348</v>
+      </c>
+      <c r="E53">
+        <v>746.7729999999999</v>
+      </c>
+      <c r="F53">
+        <v>806.973</v>
+      </c>
+      <c r="G53">
+        <v>17</v>
+      </c>
+      <c r="H53">
+        <v>1522.1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>45.3</v>
+      </c>
+      <c r="K53">
+        <v>9.44</v>
+      </c>
+      <c r="L53">
+        <v>35.86</v>
+      </c>
+      <c r="M53">
+        <v>148.2409401</v>
+      </c>
+      <c r="N53">
+        <v>-112.3809401</v>
+      </c>
+      <c r="O53">
+        <v>-22.47618802</v>
+      </c>
+      <c r="P53">
+        <v>-89.90475207999999</v>
+      </c>
+      <c r="Q53">
+        <v>-80.46475208</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1338270175331214</v>
+      </c>
+      <c r="T53">
+        <v>1.817409675476472</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.04838069695970581</v>
+      </c>
+      <c r="W53">
+        <v>0.1748124659685021</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.2419034847985291</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1564735962351655</v>
+      </c>
+      <c r="C54">
+        <v>-136.7176123254286</v>
+      </c>
+      <c r="D54">
+        <v>669.0783876745714</v>
+      </c>
+      <c r="E54">
+        <v>762.596</v>
+      </c>
+      <c r="F54">
+        <v>822.796</v>
+      </c>
+      <c r="G54">
+        <v>17</v>
+      </c>
+      <c r="H54">
+        <v>1522.1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>45.3</v>
+      </c>
+      <c r="K54">
+        <v>9.44</v>
+      </c>
+      <c r="L54">
+        <v>35.86</v>
+      </c>
+      <c r="M54">
+        <v>151.1476252</v>
+      </c>
+      <c r="N54">
+        <v>-115.2876252</v>
+      </c>
+      <c r="O54">
+        <v>-23.05752504000001</v>
+      </c>
+      <c r="P54">
+        <v>-92.23010016000002</v>
+      </c>
+      <c r="Q54">
+        <v>-82.79010016000002</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1364213303983948</v>
+      </c>
+      <c r="T54">
+        <v>1.855272377048899</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.04745029894124991</v>
+      </c>
+      <c r="W54">
+        <v>0.1749833800844924</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.2372514947062496</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1582175962351655</v>
+      </c>
+      <c r="C55">
+        <v>-160.3763062770136</v>
+      </c>
+      <c r="D55">
+        <v>661.2426937229865</v>
+      </c>
+      <c r="E55">
+        <v>778.419</v>
+      </c>
+      <c r="F55">
+        <v>838.619</v>
+      </c>
+      <c r="G55">
+        <v>17</v>
+      </c>
+      <c r="H55">
+        <v>1522.1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>45.3</v>
+      </c>
+      <c r="K55">
+        <v>9.44</v>
+      </c>
+      <c r="L55">
+        <v>35.86</v>
+      </c>
+      <c r="M55">
+        <v>154.0543103</v>
+      </c>
+      <c r="N55">
+        <v>-118.1943103</v>
+      </c>
+      <c r="O55">
+        <v>-23.63886206</v>
+      </c>
+      <c r="P55">
+        <v>-94.55544824</v>
+      </c>
+      <c r="Q55">
+        <v>-85.11544824000001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1391260395558074</v>
+      </c>
+      <c r="T55">
+        <v>1.894746257411641</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.04655501028198106</v>
+      </c>
+      <c r="W55">
+        <v>0.1751478446112001</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2327750514099053</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1599615962351655</v>
+      </c>
+      <c r="C56">
+        <v>-183.85359434159</v>
+      </c>
+      <c r="D56">
+        <v>653.58840565841</v>
+      </c>
+      <c r="E56">
+        <v>794.242</v>
+      </c>
+      <c r="F56">
+        <v>854.442</v>
+      </c>
+      <c r="G56">
+        <v>17</v>
+      </c>
+      <c r="H56">
+        <v>1522.1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>45.3</v>
+      </c>
+      <c r="K56">
+        <v>9.44</v>
+      </c>
+      <c r="L56">
+        <v>35.86</v>
+      </c>
+      <c r="M56">
+        <v>156.9609954</v>
+      </c>
+      <c r="N56">
+        <v>-121.1009954</v>
+      </c>
+      <c r="O56">
+        <v>-24.22019908</v>
+      </c>
+      <c r="P56">
+        <v>-96.88079632</v>
+      </c>
+      <c r="Q56">
+        <v>-87.44079632</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1419483447635424</v>
+      </c>
+      <c r="T56">
+        <v>1.935936393442329</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.04569288046194437</v>
+      </c>
+      <c r="W56">
+        <v>0.1753062178591408</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2284644023097219</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1617055962351656</v>
+      </c>
+      <c r="C57">
+        <v>-207.1557040831343</v>
+      </c>
+      <c r="D57">
+        <v>646.1092959168658</v>
+      </c>
+      <c r="E57">
+        <v>810.0650000000001</v>
+      </c>
+      <c r="F57">
+        <v>870.2650000000001</v>
+      </c>
+      <c r="G57">
+        <v>17</v>
+      </c>
+      <c r="H57">
+        <v>1522.1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>45.3</v>
+      </c>
+      <c r="K57">
+        <v>9.44</v>
+      </c>
+      <c r="L57">
+        <v>35.86</v>
+      </c>
+      <c r="M57">
+        <v>159.8676805</v>
+      </c>
+      <c r="N57">
+        <v>-124.0076805</v>
+      </c>
+      <c r="O57">
+        <v>-24.80153610000001</v>
+      </c>
+      <c r="P57">
+        <v>-99.20614440000003</v>
+      </c>
+      <c r="Q57">
+        <v>-89.76614440000003</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1448960857582878</v>
+      </c>
+      <c r="T57">
+        <v>1.978957202185492</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.04486210081718173</v>
+      </c>
+      <c r="W57">
+        <v>0.1754588320798837</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.2243105040859087</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1634495962351656</v>
+      </c>
+      <c r="C58">
+        <v>-230.2885812388292</v>
+      </c>
+      <c r="D58">
+        <v>638.7994187611708</v>
+      </c>
+      <c r="E58">
+        <v>825.888</v>
+      </c>
+      <c r="F58">
+        <v>886.0880000000001</v>
+      </c>
+      <c r="G58">
+        <v>17</v>
+      </c>
+      <c r="H58">
+        <v>1522.1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>45.3</v>
+      </c>
+      <c r="K58">
+        <v>9.44</v>
+      </c>
+      <c r="L58">
+        <v>35.86</v>
+      </c>
+      <c r="M58">
+        <v>162.7743656</v>
+      </c>
+      <c r="N58">
+        <v>-126.9143656</v>
+      </c>
+      <c r="O58">
+        <v>-25.38287312</v>
+      </c>
+      <c r="P58">
+        <v>-101.53149248</v>
+      </c>
+      <c r="Q58">
+        <v>-92.09149248000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.147977814980067</v>
+      </c>
+      <c r="T58">
+        <v>2.023933502235162</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.04406099187401778</v>
+      </c>
+      <c r="W58">
+        <v>0.1756059957927429</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.2203049593700889</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1651935962351656</v>
+      </c>
+      <c r="C59">
+        <v>-253.2579054832125</v>
+      </c>
+      <c r="D59">
+        <v>631.6530945167875</v>
+      </c>
+      <c r="E59">
+        <v>841.711</v>
+      </c>
+      <c r="F59">
+        <v>901.9110000000001</v>
+      </c>
+      <c r="G59">
+        <v>17</v>
+      </c>
+      <c r="H59">
+        <v>1522.1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>45.3</v>
+      </c>
+      <c r="K59">
+        <v>9.44</v>
+      </c>
+      <c r="L59">
+        <v>35.86</v>
+      </c>
+      <c r="M59">
+        <v>165.6810507</v>
+      </c>
+      <c r="N59">
+        <v>-129.8210507</v>
+      </c>
+      <c r="O59">
+        <v>-25.96421014</v>
+      </c>
+      <c r="P59">
+        <v>-103.85684056</v>
+      </c>
+      <c r="Q59">
+        <v>-94.41684056</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1512028804447197</v>
+      </c>
+      <c r="T59">
+        <v>2.071001723217375</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.04328799201657887</v>
+      </c>
+      <c r="W59">
+        <v>0.1757479958665545</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2164399600828945</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1669375962351655</v>
+      </c>
+      <c r="C60">
+        <v>-276.0691051458987</v>
+      </c>
+      <c r="D60">
+        <v>624.6648948541012</v>
+      </c>
+      <c r="E60">
+        <v>857.5339999999999</v>
+      </c>
+      <c r="F60">
+        <v>917.7339999999999</v>
+      </c>
+      <c r="G60">
+        <v>17</v>
+      </c>
+      <c r="H60">
+        <v>1522.1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>45.3</v>
+      </c>
+      <c r="K60">
+        <v>9.44</v>
+      </c>
+      <c r="L60">
+        <v>35.86</v>
+      </c>
+      <c r="M60">
+        <v>168.5877358</v>
+      </c>
+      <c r="N60">
+        <v>-132.7277358</v>
+      </c>
+      <c r="O60">
+        <v>-26.54554716</v>
+      </c>
+      <c r="P60">
+        <v>-106.18218864</v>
+      </c>
+      <c r="Q60">
+        <v>-96.74218864000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1545815204553083</v>
+      </c>
+      <c r="T60">
+        <v>2.120311288055884</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.04254164732663786</v>
+      </c>
+      <c r="W60">
+        <v>0.1758850993860966</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.2127082366331893</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1686815962351655</v>
+      </c>
+      <c r="C61">
+        <v>-298.7273709630269</v>
+      </c>
+      <c r="D61">
+        <v>617.829629036973</v>
+      </c>
+      <c r="E61">
+        <v>873.3569999999999</v>
+      </c>
+      <c r="F61">
+        <v>933.5569999999999</v>
+      </c>
+      <c r="G61">
+        <v>17</v>
+      </c>
+      <c r="H61">
+        <v>1522.1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>45.3</v>
+      </c>
+      <c r="K61">
+        <v>9.44</v>
+      </c>
+      <c r="L61">
+        <v>35.86</v>
+      </c>
+      <c r="M61">
+        <v>171.4944209</v>
+      </c>
+      <c r="N61">
+        <v>-135.6344209</v>
+      </c>
+      <c r="O61">
+        <v>-27.12688418</v>
+      </c>
+      <c r="P61">
+        <v>-108.50753672</v>
+      </c>
+      <c r="Q61">
+        <v>-99.06753672000001</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1581249721737304</v>
+      </c>
+      <c r="T61">
+        <v>2.172026197520661</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.04182060245669485</v>
+      </c>
+      <c r="W61">
+        <v>0.1760175553287052</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.2091030122834742</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1704255962351655</v>
+      </c>
+      <c r="C62">
+        <v>-321.237668935646</v>
+      </c>
+      <c r="D62">
+        <v>611.1423310643539</v>
+      </c>
+      <c r="E62">
+        <v>889.1799999999998</v>
+      </c>
+      <c r="F62">
+        <v>949.3799999999999</v>
+      </c>
+      <c r="G62">
+        <v>17</v>
+      </c>
+      <c r="H62">
+        <v>1522.1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>45.3</v>
+      </c>
+      <c r="K62">
+        <v>9.44</v>
+      </c>
+      <c r="L62">
+        <v>35.86</v>
+      </c>
+      <c r="M62">
+        <v>174.401106</v>
+      </c>
+      <c r="N62">
+        <v>-138.541106</v>
+      </c>
+      <c r="O62">
+        <v>-27.70822119999999</v>
+      </c>
+      <c r="P62">
+        <v>-110.8328848</v>
+      </c>
+      <c r="Q62">
+        <v>-101.3928848</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1618455964780737</v>
+      </c>
+      <c r="T62">
+        <v>2.226326852458678</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.04112359241574994</v>
+      </c>
+      <c r="W62">
+        <v>0.1761455960732267</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2056179620787498</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1721695962351655</v>
+      </c>
+      <c r="C63">
+        <v>-343.6047523619799</v>
+      </c>
+      <c r="D63">
+        <v>604.5982476380201</v>
+      </c>
+      <c r="E63">
+        <v>905.0029999999999</v>
+      </c>
+      <c r="F63">
+        <v>965.203</v>
+      </c>
+      <c r="G63">
+        <v>17</v>
+      </c>
+      <c r="H63">
+        <v>1522.1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>45.3</v>
+      </c>
+      <c r="K63">
+        <v>9.44</v>
+      </c>
+      <c r="L63">
+        <v>35.86</v>
+      </c>
+      <c r="M63">
+        <v>177.3077911</v>
+      </c>
+      <c r="N63">
+        <v>-141.4477911</v>
+      </c>
+      <c r="O63">
+        <v>-28.28955822</v>
+      </c>
+      <c r="P63">
+        <v>-113.15823288</v>
+      </c>
+      <c r="Q63">
+        <v>-103.71823288</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1657570220287936</v>
+      </c>
+      <c r="T63">
+        <v>2.283412156367875</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.04044943516303273</v>
+      </c>
+      <c r="W63">
+        <v>0.1762694387605509</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.2022471758151635</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1739135962351655</v>
+      </c>
+      <c r="C64">
+        <v>-365.8331731048349</v>
+      </c>
+      <c r="D64">
+        <v>598.192826895165</v>
+      </c>
+      <c r="E64">
+        <v>920.8259999999999</v>
+      </c>
+      <c r="F64">
+        <v>981.026</v>
+      </c>
+      <c r="G64">
+        <v>17</v>
+      </c>
+      <c r="H64">
+        <v>1522.1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>45.3</v>
+      </c>
+      <c r="K64">
+        <v>9.44</v>
+      </c>
+      <c r="L64">
+        <v>35.86</v>
+      </c>
+      <c r="M64">
+        <v>180.2144762</v>
+      </c>
+      <c r="N64">
+        <v>-144.3544762</v>
+      </c>
+      <c r="O64">
+        <v>-28.87089524000001</v>
+      </c>
+      <c r="P64">
+        <v>-115.48358096</v>
+      </c>
+      <c r="Q64">
+        <v>-106.04358096</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1698743120821828</v>
+      </c>
+      <c r="T64">
+        <v>2.343501949956503</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.03979702491846768</v>
+      </c>
+      <c r="W64">
+        <v>0.1763892865224775</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1989851245923383</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1756575962351655</v>
+      </c>
+      <c r="C65">
+        <v>-387.9272921502823</v>
+      </c>
+      <c r="D65">
+        <v>591.9217078497177</v>
+      </c>
+      <c r="E65">
+        <v>936.6489999999999</v>
+      </c>
+      <c r="F65">
+        <v>996.8489999999999</v>
+      </c>
+      <c r="G65">
+        <v>17</v>
+      </c>
+      <c r="H65">
+        <v>1522.1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>45.3</v>
+      </c>
+      <c r="K65">
+        <v>9.44</v>
+      </c>
+      <c r="L65">
+        <v>35.86</v>
+      </c>
+      <c r="M65">
+        <v>183.1211613</v>
+      </c>
+      <c r="N65">
+        <v>-147.2611613</v>
+      </c>
+      <c r="O65">
+        <v>-29.45223226</v>
+      </c>
+      <c r="P65">
+        <v>-117.80892904</v>
+      </c>
+      <c r="Q65">
+        <v>-108.36892904</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1742141583546743</v>
+      </c>
+      <c r="T65">
+        <v>2.406839840495868</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.03916532611023804</v>
+      </c>
+      <c r="W65">
+        <v>0.1765053295935493</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1958266305511902</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1774015962351655</v>
+      </c>
+      <c r="C66">
+        <v>-409.8912895090805</v>
+      </c>
+      <c r="D66">
+        <v>585.7807104909195</v>
+      </c>
+      <c r="E66">
+        <v>952.472</v>
+      </c>
+      <c r="F66">
+        <v>1012.672</v>
+      </c>
+      <c r="G66">
+        <v>17</v>
+      </c>
+      <c r="H66">
+        <v>1522.1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>45.3</v>
+      </c>
+      <c r="K66">
+        <v>9.44</v>
+      </c>
+      <c r="L66">
+        <v>35.86</v>
+      </c>
+      <c r="M66">
+        <v>186.0278464</v>
+      </c>
+      <c r="N66">
+        <v>-150.1678464</v>
+      </c>
+      <c r="O66">
+        <v>-30.03356928000001</v>
+      </c>
+      <c r="P66">
+        <v>-120.13427712</v>
+      </c>
+      <c r="Q66">
+        <v>-110.69427712</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1787951071978597</v>
+      </c>
+      <c r="T66">
+        <v>2.473696502731865</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.03855336788976556</v>
+      </c>
+      <c r="W66">
+        <v>0.1766177463186501</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1927668394488277</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1791455962351655</v>
+      </c>
+      <c r="C67">
+        <v>-431.7291735080845</v>
+      </c>
+      <c r="D67">
+        <v>579.7658264919156</v>
+      </c>
+      <c r="E67">
+        <v>968.2950000000001</v>
+      </c>
+      <c r="F67">
+        <v>1028.495</v>
+      </c>
+      <c r="G67">
+        <v>17</v>
+      </c>
+      <c r="H67">
+        <v>1522.1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>45.3</v>
+      </c>
+      <c r="K67">
+        <v>9.44</v>
+      </c>
+      <c r="L67">
+        <v>35.86</v>
+      </c>
+      <c r="M67">
+        <v>188.9345315</v>
+      </c>
+      <c r="N67">
+        <v>-153.0745315</v>
+      </c>
+      <c r="O67">
+        <v>-30.61490630000001</v>
+      </c>
+      <c r="P67">
+        <v>-122.4596252</v>
+      </c>
+      <c r="Q67">
+        <v>-113.0196252</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.18363782454637</v>
+      </c>
+      <c r="T67">
+        <v>2.544373545667061</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.03796023915299993</v>
+      </c>
+      <c r="W67">
+        <v>0.1767267040675939</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1898011957649995</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1808895962351655</v>
+      </c>
+      <c r="C68">
+        <v>-453.4447895150372</v>
+      </c>
+      <c r="D68">
+        <v>573.8732104849628</v>
+      </c>
+      <c r="E68">
+        <v>984.1179999999999</v>
+      </c>
+      <c r="F68">
+        <v>1044.318</v>
+      </c>
+      <c r="G68">
+        <v>17</v>
+      </c>
+      <c r="H68">
+        <v>1522.1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>45.3</v>
+      </c>
+      <c r="K68">
+        <v>9.44</v>
+      </c>
+      <c r="L68">
+        <v>35.86</v>
+      </c>
+      <c r="M68">
+        <v>191.8412166</v>
+      </c>
+      <c r="N68">
+        <v>-155.9812166</v>
+      </c>
+      <c r="O68">
+        <v>-31.19624332</v>
+      </c>
+      <c r="P68">
+        <v>-124.78497328</v>
+      </c>
+      <c r="Q68">
+        <v>-115.34497328</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1887654076212632</v>
+      </c>
+      <c r="T68">
+        <v>2.619208061716092</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.03738508401431812</v>
+      </c>
+      <c r="W68">
+        <v>0.1768323600665697</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1869254200715906</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1826335962351656</v>
+      </c>
+      <c r="C69">
+        <v>-475.0418281366552</v>
+      </c>
+      <c r="D69">
+        <v>568.0991718633448</v>
+      </c>
+      <c r="E69">
+        <v>999.941</v>
+      </c>
+      <c r="F69">
+        <v>1060.141</v>
+      </c>
+      <c r="G69">
+        <v>17</v>
+      </c>
+      <c r="H69">
+        <v>1522.1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>45.3</v>
+      </c>
+      <c r="K69">
+        <v>9.44</v>
+      </c>
+      <c r="L69">
+        <v>35.86</v>
+      </c>
+      <c r="M69">
+        <v>194.7479017</v>
+      </c>
+      <c r="N69">
+        <v>-158.8879017</v>
+      </c>
+      <c r="O69">
+        <v>-31.77758034000001</v>
+      </c>
+      <c r="P69">
+        <v>-127.11032136</v>
+      </c>
+      <c r="Q69">
+        <v>-117.67032136</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1942037533067561</v>
+      </c>
+      <c r="T69">
+        <v>2.698578002980216</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.03682709768574621</v>
+      </c>
+      <c r="W69">
+        <v>0.1769348621551284</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.184135488428731</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1843775962351655</v>
+      </c>
+      <c r="C70">
+        <v>-496.5238329267303</v>
+      </c>
+      <c r="D70">
+        <v>562.4401670732697</v>
+      </c>
+      <c r="E70">
+        <v>1015.764</v>
+      </c>
+      <c r="F70">
+        <v>1075.964</v>
+      </c>
+      <c r="G70">
+        <v>17</v>
+      </c>
+      <c r="H70">
+        <v>1522.1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>45.3</v>
+      </c>
+      <c r="K70">
+        <v>9.44</v>
+      </c>
+      <c r="L70">
+        <v>35.86</v>
+      </c>
+      <c r="M70">
+        <v>197.6545868</v>
+      </c>
+      <c r="N70">
+        <v>-161.7945868</v>
+      </c>
+      <c r="O70">
+        <v>-32.35891736</v>
+      </c>
+      <c r="P70">
+        <v>-129.43566944</v>
+      </c>
+      <c r="Q70">
+        <v>-119.99566944</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1999819955975922</v>
+      </c>
+      <c r="T70">
+        <v>2.782908565573348</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.03628552271977935</v>
+      </c>
+      <c r="W70">
+        <v>0.1770343494763765</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1814276135988968</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1861215962351656</v>
+      </c>
+      <c r="C71">
+        <v>-517.8942076380821</v>
+      </c>
+      <c r="D71">
+        <v>556.8927923619179</v>
+      </c>
+      <c r="E71">
+        <v>1031.587</v>
+      </c>
+      <c r="F71">
+        <v>1091.787</v>
+      </c>
+      <c r="G71">
+        <v>17</v>
+      </c>
+      <c r="H71">
+        <v>1522.1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>45.3</v>
+      </c>
+      <c r="K71">
+        <v>9.44</v>
+      </c>
+      <c r="L71">
+        <v>35.86</v>
+      </c>
+      <c r="M71">
+        <v>200.5612719</v>
+      </c>
+      <c r="N71">
+        <v>-164.7012719</v>
+      </c>
+      <c r="O71">
+        <v>-32.94025438</v>
+      </c>
+      <c r="P71">
+        <v>-131.76101752</v>
+      </c>
+      <c r="Q71">
+        <v>-122.32101752</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2061330277136436</v>
+      </c>
+      <c r="T71">
+        <v>2.872679809624102</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.03575964557891299</v>
+      </c>
+      <c r="W71">
+        <v>0.1771309531071537</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.178798227894565</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1878655962351655</v>
+      </c>
+      <c r="C72">
+        <v>-539.1562230495397</v>
+      </c>
+      <c r="D72">
+        <v>551.4537769504605</v>
+      </c>
+      <c r="E72">
+        <v>1047.41</v>
+      </c>
+      <c r="F72">
+        <v>1107.61</v>
+      </c>
+      <c r="G72">
+        <v>17</v>
+      </c>
+      <c r="H72">
+        <v>1522.1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>45.3</v>
+      </c>
+      <c r="K72">
+        <v>9.44</v>
+      </c>
+      <c r="L72">
+        <v>35.86</v>
+      </c>
+      <c r="M72">
+        <v>203.467957</v>
+      </c>
+      <c r="N72">
+        <v>-167.607957</v>
+      </c>
+      <c r="O72">
+        <v>-33.5215914</v>
+      </c>
+      <c r="P72">
+        <v>-134.0863656</v>
+      </c>
+      <c r="Q72">
+        <v>-124.6463656</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2126941286374317</v>
+      </c>
+      <c r="T72">
+        <v>2.968435803278238</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.03524879349921423</v>
+      </c>
+      <c r="W72">
+        <v>0.1772247966341943</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1762439674960712</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1896095962351655</v>
+      </c>
+      <c r="C73">
+        <v>-560.3130233967339</v>
+      </c>
+      <c r="D73">
+        <v>546.1199766032661</v>
+      </c>
+      <c r="E73">
+        <v>1063.233</v>
+      </c>
+      <c r="F73">
+        <v>1123.433</v>
+      </c>
+      <c r="G73">
+        <v>17</v>
+      </c>
+      <c r="H73">
+        <v>1522.1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>45.3</v>
+      </c>
+      <c r="K73">
+        <v>9.44</v>
+      </c>
+      <c r="L73">
+        <v>35.86</v>
+      </c>
+      <c r="M73">
+        <v>206.3746421</v>
+      </c>
+      <c r="N73">
+        <v>-170.5146421</v>
+      </c>
+      <c r="O73">
+        <v>-34.10292842</v>
+      </c>
+      <c r="P73">
+        <v>-136.41171368</v>
+      </c>
+      <c r="Q73">
+        <v>-126.97171368</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2197077192801017</v>
+      </c>
+      <c r="T73">
+        <v>3.070795658563694</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.03475233161894361</v>
+      </c>
+      <c r="W73">
+        <v>0.1773159966816001</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.173761658094718</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1913535962351655</v>
+      </c>
+      <c r="C74">
+        <v>-581.3676324332605</v>
+      </c>
+      <c r="D74">
+        <v>540.8883675667394</v>
+      </c>
+      <c r="E74">
+        <v>1079.056</v>
+      </c>
+      <c r="F74">
+        <v>1139.256</v>
+      </c>
+      <c r="G74">
+        <v>17</v>
+      </c>
+      <c r="H74">
+        <v>1522.1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>45.3</v>
+      </c>
+      <c r="K74">
+        <v>9.44</v>
+      </c>
+      <c r="L74">
+        <v>35.86</v>
+      </c>
+      <c r="M74">
+        <v>209.2813272</v>
+      </c>
+      <c r="N74">
+        <v>-173.4213272</v>
+      </c>
+      <c r="O74">
+        <v>-34.68426543999999</v>
+      </c>
+      <c r="P74">
+        <v>-138.73706176</v>
+      </c>
+      <c r="Q74">
+        <v>-129.29706176</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2272222806829624</v>
+      </c>
+      <c r="T74">
+        <v>3.180466932083826</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.03426966034645828</v>
+      </c>
+      <c r="W74">
+        <v>0.1774046633943556</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1713483017322914</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1930975962351655</v>
+      </c>
+      <c r="C75">
+        <v>-602.3229591467692</v>
+      </c>
+      <c r="D75">
+        <v>535.7560408532307</v>
+      </c>
+      <c r="E75">
+        <v>1094.879</v>
+      </c>
+      <c r="F75">
+        <v>1155.079</v>
+      </c>
+      <c r="G75">
+        <v>17</v>
+      </c>
+      <c r="H75">
+        <v>1522.1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>45.3</v>
+      </c>
+      <c r="K75">
+        <v>9.44</v>
+      </c>
+      <c r="L75">
+        <v>35.86</v>
+      </c>
+      <c r="M75">
+        <v>212.1880123</v>
+      </c>
+      <c r="N75">
+        <v>-176.3280123</v>
+      </c>
+      <c r="O75">
+        <v>-35.26560246</v>
+      </c>
+      <c r="P75">
+        <v>-141.06240984</v>
+      </c>
+      <c r="Q75">
+        <v>-131.62240984</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2352934762638129</v>
+      </c>
+      <c r="T75">
+        <v>3.298262003642486</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.03380021294445201</v>
+      </c>
+      <c r="W75">
+        <v>0.1774909008821042</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.16900106472226</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1948415962351655</v>
+      </c>
+      <c r="C76">
+        <v>-623.1818031526805</v>
+      </c>
+      <c r="D76">
+        <v>530.7201968473196</v>
+      </c>
+      <c r="E76">
+        <v>1110.702</v>
+      </c>
+      <c r="F76">
+        <v>1170.902</v>
+      </c>
+      <c r="G76">
+        <v>17</v>
+      </c>
+      <c r="H76">
+        <v>1522.1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>45.3</v>
+      </c>
+      <c r="K76">
+        <v>9.44</v>
+      </c>
+      <c r="L76">
+        <v>35.86</v>
+      </c>
+      <c r="M76">
+        <v>215.0946974</v>
+      </c>
+      <c r="N76">
+        <v>-179.2346974</v>
+      </c>
+      <c r="O76">
+        <v>-35.84693948</v>
+      </c>
+      <c r="P76">
+        <v>-143.38775792</v>
+      </c>
+      <c r="Q76">
+        <v>-133.94775792</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2439855330431903</v>
+      </c>
+      <c r="T76">
+        <v>3.425118234551812</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.03334345331006752</v>
+      </c>
+      <c r="W76">
+        <v>0.1775748076269406</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1667172665503375</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1965855962351655</v>
+      </c>
+      <c r="C77">
+        <v>-643.9468597865473</v>
+      </c>
+      <c r="D77">
+        <v>525.7781402134526</v>
+      </c>
+      <c r="E77">
+        <v>1126.525</v>
+      </c>
+      <c r="F77">
+        <v>1186.725</v>
+      </c>
+      <c r="G77">
+        <v>17</v>
+      </c>
+      <c r="H77">
+        <v>1522.1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>45.3</v>
+      </c>
+      <c r="K77">
+        <v>9.44</v>
+      </c>
+      <c r="L77">
+        <v>35.86</v>
+      </c>
+      <c r="M77">
+        <v>218.0013825</v>
+      </c>
+      <c r="N77">
+        <v>-182.1413825</v>
+      </c>
+      <c r="O77">
+        <v>-36.4282765</v>
+      </c>
+      <c r="P77">
+        <v>-145.713106</v>
+      </c>
+      <c r="Q77">
+        <v>-136.273106</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.253372954364918</v>
+      </c>
+      <c r="T77">
+        <v>3.562122963933885</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.03289887393259995</v>
+      </c>
+      <c r="W77">
+        <v>0.1776564768585814</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1644943696629998</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1983295962351656</v>
+      </c>
+      <c r="C78">
+        <v>-664.6207249145218</v>
+      </c>
+      <c r="D78">
+        <v>520.9272750854782</v>
+      </c>
+      <c r="E78">
+        <v>1142.348</v>
+      </c>
+      <c r="F78">
+        <v>1202.548</v>
+      </c>
+      <c r="G78">
+        <v>17</v>
+      </c>
+      <c r="H78">
+        <v>1522.1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>45.3</v>
+      </c>
+      <c r="K78">
+        <v>9.44</v>
+      </c>
+      <c r="L78">
+        <v>35.86</v>
+      </c>
+      <c r="M78">
+        <v>220.9080676</v>
+      </c>
+      <c r="N78">
+        <v>-185.0480676</v>
+      </c>
+      <c r="O78">
+        <v>-37.00961352000001</v>
+      </c>
+      <c r="P78">
+        <v>-148.03845408</v>
+      </c>
+      <c r="Q78">
+        <v>-138.59845408</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2635426607967896</v>
+      </c>
+      <c r="T78">
+        <v>3.710544754097798</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.03246599401243416</v>
+      </c>
+      <c r="W78">
+        <v>0.1777359968999158</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1623299700621708</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2000735962351655</v>
+      </c>
+      <c r="C79">
+        <v>-685.2058994799643</v>
+      </c>
+      <c r="D79">
+        <v>516.1651005200358</v>
+      </c>
+      <c r="E79">
+        <v>1158.171</v>
+      </c>
+      <c r="F79">
+        <v>1218.371</v>
+      </c>
+      <c r="G79">
+        <v>17</v>
+      </c>
+      <c r="H79">
+        <v>1522.1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>45.3</v>
+      </c>
+      <c r="K79">
+        <v>9.44</v>
+      </c>
+      <c r="L79">
+        <v>35.86</v>
+      </c>
+      <c r="M79">
+        <v>223.8147527</v>
+      </c>
+      <c r="N79">
+        <v>-187.9547527</v>
+      </c>
+      <c r="O79">
+        <v>-37.59095054000001</v>
+      </c>
+      <c r="P79">
+        <v>-150.36380216</v>
+      </c>
+      <c r="Q79">
+        <v>-140.92380216</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2745966895270847</v>
+      </c>
+      <c r="T79">
+        <v>3.871872786884658</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.03204435772655839</v>
+      </c>
+      <c r="W79">
+        <v>0.1778134514856312</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1602217886327919</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2018175962351655</v>
+      </c>
+      <c r="C80">
+        <v>-705.7047938029295</v>
+      </c>
+      <c r="D80">
+        <v>511.4892061970704</v>
+      </c>
+      <c r="E80">
+        <v>1173.994</v>
+      </c>
+      <c r="F80">
+        <v>1234.194</v>
+      </c>
+      <c r="G80">
+        <v>17</v>
+      </c>
+      <c r="H80">
+        <v>1522.1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>45.3</v>
+      </c>
+      <c r="K80">
+        <v>9.44</v>
+      </c>
+      <c r="L80">
+        <v>35.86</v>
+      </c>
+      <c r="M80">
+        <v>226.7214378</v>
+      </c>
+      <c r="N80">
+        <v>-190.8614378</v>
+      </c>
+      <c r="O80">
+        <v>-38.17228755999999</v>
+      </c>
+      <c r="P80">
+        <v>-152.68915024</v>
+      </c>
+      <c r="Q80">
+        <v>-143.24915024</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2866556299601341</v>
+      </c>
+      <c r="T80">
+        <v>4.047867004470325</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.03163353262749995</v>
+      </c>
+      <c r="W80">
+        <v>0.1778889200563283</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1581676631374999</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2035615962351656</v>
+      </c>
+      <c r="C81">
+        <v>-726.11973164806</v>
+      </c>
+      <c r="D81">
+        <v>506.8972683519401</v>
+      </c>
+      <c r="E81">
+        <v>1189.817</v>
+      </c>
+      <c r="F81">
+        <v>1250.017</v>
+      </c>
+      <c r="G81">
+        <v>17</v>
+      </c>
+      <c r="H81">
+        <v>1522.1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>45.3</v>
+      </c>
+      <c r="K81">
+        <v>9.44</v>
+      </c>
+      <c r="L81">
+        <v>35.86</v>
+      </c>
+      <c r="M81">
+        <v>229.6281229</v>
+      </c>
+      <c r="N81">
+        <v>-193.7681229</v>
+      </c>
+      <c r="O81">
+        <v>-38.75362458000001</v>
+      </c>
+      <c r="P81">
+        <v>-155.01449832</v>
+      </c>
+      <c r="Q81">
+        <v>-145.57449832</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2998630409106167</v>
+      </c>
+      <c r="T81">
+        <v>4.240622576111769</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.03123310816386071</v>
+      </c>
+      <c r="W81">
+        <v>0.1779624780302988</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1561655408193034</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2053055962351656</v>
+      </c>
+      <c r="C82">
+        <v>-746.4529540753072</v>
+      </c>
+      <c r="D82">
+        <v>502.3870459246929</v>
+      </c>
+      <c r="E82">
+        <v>1205.64</v>
+      </c>
+      <c r="F82">
+        <v>1265.84</v>
+      </c>
+      <c r="G82">
+        <v>17</v>
+      </c>
+      <c r="H82">
+        <v>1522.1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>45.3</v>
+      </c>
+      <c r="K82">
+        <v>9.44</v>
+      </c>
+      <c r="L82">
+        <v>35.86</v>
+      </c>
+      <c r="M82">
+        <v>232.534808</v>
+      </c>
+      <c r="N82">
+        <v>-196.674808</v>
+      </c>
+      <c r="O82">
+        <v>-39.33496160000001</v>
+      </c>
+      <c r="P82">
+        <v>-157.3398464</v>
+      </c>
+      <c r="Q82">
+        <v>-147.8998464</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3143911929561475</v>
+      </c>
+      <c r="T82">
+        <v>4.452653704917357</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.03084269431181245</v>
+      </c>
+      <c r="W82">
+        <v>0.1780341970549201</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1542134715590622</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2070495962351655</v>
+      </c>
+      <c r="C83">
+        <v>-766.7066230868925</v>
+      </c>
+      <c r="D83">
+        <v>497.9563769131076</v>
+      </c>
+      <c r="E83">
+        <v>1221.463</v>
+      </c>
+      <c r="F83">
+        <v>1281.663</v>
+      </c>
+      <c r="G83">
+        <v>17</v>
+      </c>
+      <c r="H83">
+        <v>1522.1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>45.3</v>
+      </c>
+      <c r="K83">
+        <v>9.44</v>
+      </c>
+      <c r="L83">
+        <v>35.86</v>
+      </c>
+      <c r="M83">
+        <v>235.4414931</v>
+      </c>
+      <c r="N83">
+        <v>-199.5814931</v>
+      </c>
+      <c r="O83">
+        <v>-39.91629862</v>
+      </c>
+      <c r="P83">
+        <v>-159.66519448</v>
+      </c>
+      <c r="Q83">
+        <v>-150.22519448</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3304486241643658</v>
+      </c>
+      <c r="T83">
+        <v>4.687003899913008</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.03046192030796292</v>
+      </c>
+      <c r="W83">
+        <v>0.1781041452394272</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1523096015398147</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2087935962351655</v>
+      </c>
+      <c r="C84">
+        <v>-786.8828250829743</v>
+      </c>
+      <c r="D84">
+        <v>493.6031749170259</v>
+      </c>
+      <c r="E84">
+        <v>1237.286</v>
+      </c>
+      <c r="F84">
+        <v>1297.486</v>
+      </c>
+      <c r="G84">
+        <v>17</v>
+      </c>
+      <c r="H84">
+        <v>1522.1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>45.3</v>
+      </c>
+      <c r="K84">
+        <v>9.44</v>
+      </c>
+      <c r="L84">
+        <v>35.86</v>
+      </c>
+      <c r="M84">
+        <v>238.3481782</v>
+      </c>
+      <c r="N84">
+        <v>-202.4881782</v>
+      </c>
+      <c r="O84">
+        <v>-40.49763564000001</v>
+      </c>
+      <c r="P84">
+        <v>-161.9905425600001</v>
+      </c>
+      <c r="Q84">
+        <v>-152.5505425600001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3482902143957194</v>
+      </c>
+      <c r="T84">
+        <v>4.947393005463731</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.03009043347493897</v>
+      </c>
+      <c r="W84">
+        <v>0.1781723873706537</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1504521673746948</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2105375962351655</v>
+      </c>
+      <c r="C85">
+        <v>-806.9835741376255</v>
+      </c>
+      <c r="D85">
+        <v>489.3254258623745</v>
+      </c>
+      <c r="E85">
+        <v>1253.109</v>
+      </c>
+      <c r="F85">
+        <v>1313.309</v>
+      </c>
+      <c r="G85">
+        <v>17</v>
+      </c>
+      <c r="H85">
+        <v>1522.1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>45.3</v>
+      </c>
+      <c r="K85">
+        <v>9.44</v>
+      </c>
+      <c r="L85">
+        <v>35.86</v>
+      </c>
+      <c r="M85">
+        <v>241.2548633</v>
+      </c>
+      <c r="N85">
+        <v>-205.3948633</v>
+      </c>
+      <c r="O85">
+        <v>-41.07897266000001</v>
+      </c>
+      <c r="P85">
+        <v>-164.31589064</v>
+      </c>
+      <c r="Q85">
+        <v>-154.87589064</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3682308152425265</v>
+      </c>
+      <c r="T85">
+        <v>5.238416123432186</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.02972789813186742</v>
+      </c>
+      <c r="W85">
+        <v>0.178238985113176</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1486394906593371</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2122815962351655</v>
+      </c>
+      <c r="C86">
+        <v>-827.010815105931</v>
+      </c>
+      <c r="D86">
+        <v>485.1211848940688</v>
+      </c>
+      <c r="E86">
+        <v>1268.932</v>
+      </c>
+      <c r="F86">
+        <v>1329.132</v>
+      </c>
+      <c r="G86">
+        <v>17</v>
+      </c>
+      <c r="H86">
+        <v>1522.1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>45.3</v>
+      </c>
+      <c r="K86">
+        <v>9.44</v>
+      </c>
+      <c r="L86">
+        <v>35.86</v>
+      </c>
+      <c r="M86">
+        <v>244.1615484</v>
+      </c>
+      <c r="N86">
+        <v>-208.3015483999999</v>
+      </c>
+      <c r="O86">
+        <v>-41.66030967999999</v>
+      </c>
+      <c r="P86">
+        <v>-166.64123872</v>
+      </c>
+      <c r="Q86">
+        <v>-157.20123872</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3906639911951842</v>
+      </c>
+      <c r="T86">
+        <v>5.565817131146694</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.02937399458267853</v>
+      </c>
+      <c r="W86">
+        <v>0.178303997195162</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1468699729133927</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2140255962351655</v>
+      </c>
+      <c r="C87">
+        <v>-846.9664265722737</v>
+      </c>
+      <c r="D87">
+        <v>480.9885734277262</v>
+      </c>
+      <c r="E87">
+        <v>1284.755</v>
+      </c>
+      <c r="F87">
+        <v>1344.955</v>
+      </c>
+      <c r="G87">
+        <v>17</v>
+      </c>
+      <c r="H87">
+        <v>1522.1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>45.3</v>
+      </c>
+      <c r="K87">
+        <v>9.44</v>
+      </c>
+      <c r="L87">
+        <v>35.86</v>
+      </c>
+      <c r="M87">
+        <v>247.0682335</v>
+      </c>
+      <c r="N87">
+        <v>-211.2082335</v>
+      </c>
+      <c r="O87">
+        <v>-42.2416467</v>
+      </c>
+      <c r="P87">
+        <v>-168.9665868</v>
+      </c>
+      <c r="Q87">
+        <v>-159.5265868</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4160882572748633</v>
+      </c>
+      <c r="T87">
+        <v>5.936871606556475</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.02902841817582348</v>
+      </c>
+      <c r="W87">
+        <v>0.1783674795811012</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1451420908791173</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2157695962351655</v>
+      </c>
+      <c r="C88">
+        <v>-866.8522236491981</v>
+      </c>
+      <c r="D88">
+        <v>476.925776350802</v>
+      </c>
+      <c r="E88">
+        <v>1300.578</v>
+      </c>
+      <c r="F88">
+        <v>1360.778</v>
+      </c>
+      <c r="G88">
+        <v>17</v>
+      </c>
+      <c r="H88">
+        <v>1522.1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>45.3</v>
+      </c>
+      <c r="K88">
+        <v>9.44</v>
+      </c>
+      <c r="L88">
+        <v>35.86</v>
+      </c>
+      <c r="M88">
+        <v>249.9749186</v>
+      </c>
+      <c r="N88">
+        <v>-214.1149186</v>
+      </c>
+      <c r="O88">
+        <v>-42.82298372</v>
+      </c>
+      <c r="P88">
+        <v>-171.29193488</v>
+      </c>
+      <c r="Q88">
+        <v>-161.85193488</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4451445613659248</v>
+      </c>
+      <c r="T88">
+        <v>6.360933864167651</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02869087842959298</v>
+      </c>
+      <c r="W88">
+        <v>0.1784294856324838</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1434543921479648</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2175135962351655</v>
+      </c>
+      <c r="C89">
+        <v>-886.6699606356161</v>
+      </c>
+      <c r="D89">
+        <v>472.9310393643838</v>
+      </c>
+      <c r="E89">
+        <v>1316.401</v>
+      </c>
+      <c r="F89">
+        <v>1376.601</v>
+      </c>
+      <c r="G89">
+        <v>17</v>
+      </c>
+      <c r="H89">
+        <v>1522.1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>45.3</v>
+      </c>
+      <c r="K89">
+        <v>9.44</v>
+      </c>
+      <c r="L89">
+        <v>35.86</v>
+      </c>
+      <c r="M89">
+        <v>252.8816037</v>
+      </c>
+      <c r="N89">
+        <v>-217.0216037</v>
+      </c>
+      <c r="O89">
+        <v>-43.40432074</v>
+      </c>
+      <c r="P89">
+        <v>-173.61728296</v>
+      </c>
+      <c r="Q89">
+        <v>-164.17728296</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4786710660863806</v>
+      </c>
+      <c r="T89">
+        <v>6.850236469103624</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02836109821775858</v>
+      </c>
+      <c r="W89">
+        <v>0.1784900662573977</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1418054910887929</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2192575962351655</v>
+      </c>
+      <c r="C90">
+        <v>-906.4213335425327</v>
+      </c>
+      <c r="D90">
+        <v>469.0026664574673</v>
+      </c>
+      <c r="E90">
+        <v>1332.224</v>
+      </c>
+      <c r="F90">
+        <v>1392.424</v>
+      </c>
+      <c r="G90">
+        <v>17</v>
+      </c>
+      <c r="H90">
+        <v>1522.1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>45.3</v>
+      </c>
+      <c r="K90">
+        <v>9.44</v>
+      </c>
+      <c r="L90">
+        <v>35.86</v>
+      </c>
+      <c r="M90">
+        <v>255.7882888</v>
+      </c>
+      <c r="N90">
+        <v>-219.9282888</v>
+      </c>
+      <c r="O90">
+        <v>-43.98565776000001</v>
+      </c>
+      <c r="P90">
+        <v>-175.94263104</v>
+      </c>
+      <c r="Q90">
+        <v>-166.50263104</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.5177853215935792</v>
+      </c>
+      <c r="T90">
+        <v>7.421089508195595</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.02803881301073859</v>
+      </c>
+      <c r="W90">
+        <v>0.1785492700499273</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1401940650536929</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2210015962351655</v>
+      </c>
+      <c r="C91">
+        <v>-926.1079824939238</v>
+      </c>
+      <c r="D91">
+        <v>465.1390175060762</v>
+      </c>
+      <c r="E91">
+        <v>1348.047</v>
+      </c>
+      <c r="F91">
+        <v>1408.247</v>
+      </c>
+      <c r="G91">
+        <v>17</v>
+      </c>
+      <c r="H91">
+        <v>1522.1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>45.3</v>
+      </c>
+      <c r="K91">
+        <v>9.44</v>
+      </c>
+      <c r="L91">
+        <v>35.86</v>
+      </c>
+      <c r="M91">
+        <v>258.6949739</v>
+      </c>
+      <c r="N91">
+        <v>-222.8349739</v>
+      </c>
+      <c r="O91">
+        <v>-44.56699478000001</v>
+      </c>
+      <c r="P91">
+        <v>-178.26797912</v>
+      </c>
+      <c r="Q91">
+        <v>-168.82797912</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5640112599202681</v>
+      </c>
+      <c r="T91">
+        <v>8.095734008940649</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.0277237701679213</v>
+      </c>
+      <c r="W91">
+        <v>0.1786071434201529</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1386188508396066</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2227455962351655</v>
+      </c>
+      <c r="C92">
+        <v>-945.7314940099208</v>
+      </c>
+      <c r="D92">
+        <v>461.3385059900792</v>
+      </c>
+      <c r="E92">
+        <v>1363.87</v>
+      </c>
+      <c r="F92">
+        <v>1424.07</v>
+      </c>
+      <c r="G92">
+        <v>17</v>
+      </c>
+      <c r="H92">
+        <v>1522.1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>45.3</v>
+      </c>
+      <c r="K92">
+        <v>9.44</v>
+      </c>
+      <c r="L92">
+        <v>35.86</v>
+      </c>
+      <c r="M92">
+        <v>261.601659</v>
+      </c>
+      <c r="N92">
+        <v>-225.741659</v>
+      </c>
+      <c r="O92">
+        <v>-45.14833179999999</v>
+      </c>
+      <c r="P92">
+        <v>-180.5933272</v>
+      </c>
+      <c r="Q92">
+        <v>-171.1533272</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.619482385912295</v>
+      </c>
+      <c r="T92">
+        <v>8.905307409834714</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02741572827716662</v>
+      </c>
+      <c r="W92">
+        <v>0.1786637307154845</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1370786413858331</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2244895962351655</v>
+      </c>
+      <c r="C93">
+        <v>-965.2934031789655</v>
+      </c>
+      <c r="D93">
+        <v>457.5995968210345</v>
+      </c>
+      <c r="E93">
+        <v>1379.693</v>
+      </c>
+      <c r="F93">
+        <v>1439.893</v>
+      </c>
+      <c r="G93">
+        <v>17</v>
+      </c>
+      <c r="H93">
+        <v>1522.1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>45.3</v>
+      </c>
+      <c r="K93">
+        <v>9.44</v>
+      </c>
+      <c r="L93">
+        <v>35.86</v>
+      </c>
+      <c r="M93">
+        <v>264.5083441</v>
+      </c>
+      <c r="N93">
+        <v>-228.6483441</v>
+      </c>
+      <c r="O93">
+        <v>-45.72966882</v>
+      </c>
+      <c r="P93">
+        <v>-182.91867528</v>
+      </c>
+      <c r="Q93">
+        <v>-173.47867528</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6872804287914389</v>
+      </c>
+      <c r="T93">
+        <v>9.894786010927461</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.0271144565378571</v>
+      </c>
+      <c r="W93">
+        <v>0.1787190743339956</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1355722826892856</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2262335962351655</v>
+      </c>
+      <c r="C94">
+        <v>-984.7951957251914</v>
+      </c>
+      <c r="D94">
+        <v>453.9208042748087</v>
+      </c>
+      <c r="E94">
+        <v>1395.516</v>
+      </c>
+      <c r="F94">
+        <v>1455.716</v>
+      </c>
+      <c r="G94">
+        <v>17</v>
+      </c>
+      <c r="H94">
+        <v>1522.1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>45.3</v>
+      </c>
+      <c r="K94">
+        <v>9.44</v>
+      </c>
+      <c r="L94">
+        <v>35.86</v>
+      </c>
+      <c r="M94">
+        <v>267.4150292</v>
+      </c>
+      <c r="N94">
+        <v>-231.5550292</v>
+      </c>
+      <c r="O94">
+        <v>-46.31100584000001</v>
+      </c>
+      <c r="P94">
+        <v>-185.24402336</v>
+      </c>
+      <c r="Q94">
+        <v>-175.80402336</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7720279823903691</v>
+      </c>
+      <c r="T94">
+        <v>11.1316342622934</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.02681973418418473</v>
+      </c>
+      <c r="W94">
+        <v>0.1787732148303653</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1340986709209238</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2279775962351656</v>
+      </c>
+      <c r="C95">
+        <v>-1004.238309976877</v>
+      </c>
+      <c r="D95">
+        <v>450.300690023123</v>
+      </c>
+      <c r="E95">
+        <v>1411.339</v>
+      </c>
+      <c r="F95">
+        <v>1471.539</v>
+      </c>
+      <c r="G95">
+        <v>17</v>
+      </c>
+      <c r="H95">
+        <v>1522.1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>45.3</v>
+      </c>
+      <c r="K95">
+        <v>9.44</v>
+      </c>
+      <c r="L95">
+        <v>35.86</v>
+      </c>
+      <c r="M95">
+        <v>270.3217143</v>
+      </c>
+      <c r="N95">
+        <v>-234.4617143</v>
+      </c>
+      <c r="O95">
+        <v>-46.89234286</v>
+      </c>
+      <c r="P95">
+        <v>-187.56937144</v>
+      </c>
+      <c r="Q95">
+        <v>-178.12937144</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8809891227318505</v>
+      </c>
+      <c r="T95">
+        <v>12.72186772833531</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.02653134994564512</v>
+      </c>
+      <c r="W95">
+        <v>0.178826191014985</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1326567497282256</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2297215962351656</v>
+      </c>
+      <c r="C96">
+        <v>-1023.624138741453</v>
+      </c>
+      <c r="D96">
+        <v>446.7378612585474</v>
+      </c>
+      <c r="E96">
+        <v>1427.162</v>
+      </c>
+      <c r="F96">
+        <v>1487.362</v>
+      </c>
+      <c r="G96">
+        <v>17</v>
+      </c>
+      <c r="H96">
+        <v>1522.1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>45.3</v>
+      </c>
+      <c r="K96">
+        <v>9.44</v>
+      </c>
+      <c r="L96">
+        <v>35.86</v>
+      </c>
+      <c r="M96">
+        <v>273.2283994</v>
+      </c>
+      <c r="N96">
+        <v>-237.3683994</v>
+      </c>
+      <c r="O96">
+        <v>-47.47367988</v>
+      </c>
+      <c r="P96">
+        <v>-189.89471952</v>
+      </c>
+      <c r="Q96">
+        <v>-180.45471952</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.026270643187159</v>
+      </c>
+      <c r="T96">
+        <v>14.8421790163912</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.02624910154196804</v>
+      </c>
+      <c r="W96">
+        <v>0.1788780400467405</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1312455077098402</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2314655962351655</v>
+      </c>
+      <c r="C97">
+        <v>-1042.954031092194</v>
+      </c>
+      <c r="D97">
+        <v>443.2309689078065</v>
+      </c>
+      <c r="E97">
+        <v>1442.985</v>
+      </c>
+      <c r="F97">
+        <v>1503.185</v>
+      </c>
+      <c r="G97">
+        <v>17</v>
+      </c>
+      <c r="H97">
+        <v>1522.1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>45.3</v>
+      </c>
+      <c r="K97">
+        <v>9.44</v>
+      </c>
+      <c r="L97">
+        <v>35.86</v>
+      </c>
+      <c r="M97">
+        <v>276.1350845000001</v>
+      </c>
+      <c r="N97">
+        <v>-240.2750845</v>
+      </c>
+      <c r="O97">
+        <v>-48.05501690000001</v>
+      </c>
+      <c r="P97">
+        <v>-192.2200676</v>
+      </c>
+      <c r="Q97">
+        <v>-182.7800676000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.229664771824591</v>
+      </c>
+      <c r="T97">
+        <v>17.81061481966945</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.02597279520994732</v>
+      </c>
+      <c r="W97">
+        <v>0.1789287975199327</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1298639760497367</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2332095962351655</v>
+      </c>
+      <c r="C98">
+        <v>-1062.229294071416</v>
+      </c>
+      <c r="D98">
+        <v>439.7787059285844</v>
+      </c>
+      <c r="E98">
+        <v>1458.808</v>
+      </c>
+      <c r="F98">
+        <v>1519.008</v>
+      </c>
+      <c r="G98">
+        <v>17</v>
+      </c>
+      <c r="H98">
+        <v>1522.1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>45.3</v>
+      </c>
+      <c r="K98">
+        <v>9.44</v>
+      </c>
+      <c r="L98">
+        <v>35.86</v>
+      </c>
+      <c r="M98">
+        <v>279.0417696</v>
+      </c>
+      <c r="N98">
+        <v>-243.1817695999999</v>
+      </c>
+      <c r="O98">
+        <v>-48.63635391999999</v>
+      </c>
+      <c r="P98">
+        <v>-194.54541568</v>
+      </c>
+      <c r="Q98">
+        <v>-185.10541568</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.534755964780736</v>
+      </c>
+      <c r="T98">
+        <v>22.26326852458676</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.02570224525984371</v>
+      </c>
+      <c r="W98">
+        <v>0.1789784975457667</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1285112262992186</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2349535962351655</v>
+      </c>
+      <c r="C99">
+        <v>-1081.45119431469</v>
+      </c>
+      <c r="D99">
+        <v>436.3798056853101</v>
+      </c>
+      <c r="E99">
+        <v>1474.631</v>
+      </c>
+      <c r="F99">
+        <v>1534.831</v>
+      </c>
+      <c r="G99">
+        <v>17</v>
+      </c>
+      <c r="H99">
+        <v>1522.1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>45.3</v>
+      </c>
+      <c r="K99">
+        <v>9.44</v>
+      </c>
+      <c r="L99">
+        <v>35.86</v>
+      </c>
+      <c r="M99">
+        <v>281.9484547</v>
+      </c>
+      <c r="N99">
+        <v>-246.0884547</v>
+      </c>
+      <c r="O99">
+        <v>-49.21769094</v>
+      </c>
+      <c r="P99">
+        <v>-196.87076376</v>
+      </c>
+      <c r="Q99">
+        <v>-187.43076376</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.043241286374315</v>
+      </c>
+      <c r="T99">
+        <v>29.68435803278235</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.02543727365922676</v>
+      </c>
+      <c r="W99">
+        <v>0.1790271728288</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1271863682961338</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2366975962351656</v>
+      </c>
+      <c r="C100">
+        <v>-1100.620959600318</v>
+      </c>
+      <c r="D100">
+        <v>433.0330403996816</v>
+      </c>
+      <c r="E100">
+        <v>1490.454</v>
+      </c>
+      <c r="F100">
+        <v>1550.654</v>
+      </c>
+      <c r="G100">
+        <v>17</v>
+      </c>
+      <c r="H100">
+        <v>1522.1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>45.3</v>
+      </c>
+      <c r="K100">
+        <v>9.44</v>
+      </c>
+      <c r="L100">
+        <v>35.86</v>
+      </c>
+      <c r="M100">
+        <v>284.8551398</v>
+      </c>
+      <c r="N100">
+        <v>-248.9951398</v>
+      </c>
+      <c r="O100">
+        <v>-49.79902796</v>
+      </c>
+      <c r="P100">
+        <v>-199.19611184</v>
+      </c>
+      <c r="Q100">
+        <v>-189.75611184</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.060211929561472</v>
+      </c>
+      <c r="T100">
+        <v>44.52653704917353</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.02517770964229588</v>
+      </c>
+      <c r="W100">
+        <v>0.1790748547387103</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1258885482114794</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2384415962351655</v>
+      </c>
+      <c r="C101">
+        <v>-1119.739780328048</v>
+      </c>
+      <c r="D101">
+        <v>429.7372196719514</v>
+      </c>
+      <c r="E101">
+        <v>1506.277</v>
+      </c>
+      <c r="F101">
+        <v>1566.477</v>
+      </c>
+      <c r="G101">
+        <v>17</v>
+      </c>
+      <c r="H101">
+        <v>1522.1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>45.3</v>
+      </c>
+      <c r="K101">
+        <v>9.44</v>
+      </c>
+      <c r="L101">
+        <v>35.86</v>
+      </c>
+      <c r="M101">
+        <v>287.7618249</v>
+      </c>
+      <c r="N101">
+        <v>-251.9018249</v>
+      </c>
+      <c r="O101">
+        <v>-50.38036498</v>
+      </c>
+      <c r="P101">
+        <v>-201.52145992</v>
+      </c>
+      <c r="Q101">
+        <v>-192.08145992</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>6.111123859122944</v>
+      </c>
+      <c r="T101">
+        <v>89.05307409834705</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.02492338934287875</v>
+      </c>
+      <c r="W101">
+        <v>0.1791215733777132</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1246169467143938</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
